--- a/data_files/03-Household Income 2023.xlsx
+++ b/data_files/03-Household Income 2023.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ADC-IPHS\ISB\CPS\MARCH\2024\P60-282 Income Report\Tables\FOR PUBLISHING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marquis\DA-Pathway-Project\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7BA8CD-BE78-4006-84B1-7F4BB6C3A020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FAE86B-C4C7-42C3-BC98-C228CBEBFF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tableA2" sheetId="1" r:id="rId1"/>
+    <sheet name="tableA2 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">tableA2!$A$1:$P$508</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">tableA2!$A$1:$P$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'tableA2 (2)'!$A$1:$P$508</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="113">
   <si>
     <t>Table with row headers in column A and column headers in rows 4 through 5</t>
   </si>
@@ -1381,6 +1383,81 @@
       <t>1</t>
     </r>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013 </t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>Total (thousands)</t>
+  </si>
+  <si>
+    <t>Percent distribution (Total)</t>
+  </si>
+  <si>
+    <t>Mean Income</t>
+  </si>
 </sst>
 </file>
 
@@ -1390,7 +1467,7 @@
     <numFmt numFmtId="164" formatCode="##0.0"/>
     <numFmt numFmtId="165" formatCode="\(\N\A\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1469,6 +1546,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1526,31 +1609,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1866,113 +1952,3036 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="12" width="9.7265625" customWidth="1"/>
+    <col min="13" max="16" width="10.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="3">
+        <v>132200</v>
+      </c>
+      <c r="C2" s="3">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="I2" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="L2" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="M2" s="3">
+        <v>80610</v>
+      </c>
+      <c r="N2" s="3">
+        <v>634</v>
+      </c>
+      <c r="O2" s="3">
+        <v>114500</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="3">
+        <v>131400</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="H3" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="I3" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="K3" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L3" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="M3" s="3">
+        <v>77540</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1006</v>
+      </c>
+      <c r="O3" s="3">
+        <v>110600</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="3">
+        <v>131200</v>
+      </c>
+      <c r="C4" s="3">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="H4" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="J4" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L4" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="M4" s="3">
+        <v>79260</v>
+      </c>
+      <c r="N4" s="3">
+        <v>678</v>
+      </c>
+      <c r="O4" s="3">
+        <v>114600</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="3">
+        <v>129200</v>
+      </c>
+      <c r="C5" s="3">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="H5" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="K5" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L5" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>79560</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1030</v>
+      </c>
+      <c r="O5" s="3">
+        <v>114000</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="3">
+        <v>128500</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="J6" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="K6" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="M6" s="3">
+        <v>81210</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1069</v>
+      </c>
+      <c r="O6" s="3">
+        <v>115900</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="3">
+        <v>128600</v>
+      </c>
+      <c r="C7" s="3">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="H7" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="I7" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K7" s="4">
+        <v>9</v>
+      </c>
+      <c r="L7" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>75790</v>
+      </c>
+      <c r="N7" s="3">
+        <v>829</v>
+      </c>
+      <c r="O7" s="3">
+        <v>108000</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>127600</v>
+      </c>
+      <c r="C8" s="3">
+        <v>100</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="G8" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K8" s="4">
+        <v>9</v>
+      </c>
+      <c r="L8" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>75100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>674</v>
+      </c>
+      <c r="O8" s="3">
+        <v>105500</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="3">
+        <v>126200</v>
+      </c>
+      <c r="C9" s="3">
+        <v>100</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="F9" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="G9" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="I9" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="J9" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="K9" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="L9" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="M9" s="3">
+        <v>73520</v>
+      </c>
+      <c r="N9" s="3">
+        <v>893</v>
+      </c>
+      <c r="O9" s="3">
+        <v>103500</v>
+      </c>
+      <c r="P9" s="3">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="3">
+        <v>125800</v>
+      </c>
+      <c r="C10" s="3">
+        <v>100</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="G10" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="I10" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="J10" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="K10" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="L10" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>71000</v>
+      </c>
+      <c r="N10" s="3">
+        <v>663</v>
+      </c>
+      <c r="O10" s="3">
+        <v>99580</v>
+      </c>
+      <c r="P10" s="3">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B11" s="3">
+        <v>124600</v>
+      </c>
+      <c r="C11" s="3">
+        <v>100</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G11" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="I11" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="J11" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="K11" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L11" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M11" s="3">
+        <v>67360</v>
+      </c>
+      <c r="N11" s="3">
+        <v>810</v>
+      </c>
+      <c r="O11" s="3">
+        <v>95080</v>
+      </c>
+      <c r="P11" s="3">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="3">
+        <v>123000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>100</v>
+      </c>
+      <c r="D12" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G12" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="H12" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I12" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="J12" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="K12" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="L12" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M12" s="3">
+        <v>66130</v>
+      </c>
+      <c r="N12" s="3">
+        <v>578</v>
+      </c>
+      <c r="O12" s="3">
+        <v>92490</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="3">
+        <v>122500</v>
+      </c>
+      <c r="C13" s="3">
+        <v>100</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="H13" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="J13" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="K13" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="L13" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="M13" s="3">
+        <v>65740</v>
+      </c>
+      <c r="N13" s="3">
+        <v>443</v>
+      </c>
+      <c r="O13" s="3">
+        <v>91850</v>
+      </c>
+      <c r="P13" s="3">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="3">
+        <v>121100</v>
+      </c>
+      <c r="C14" s="3">
+        <v>100</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="F14" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="H14" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I14" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="J14" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="L14" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>65750</v>
+      </c>
+      <c r="N14" s="3">
+        <v>542</v>
+      </c>
+      <c r="O14" s="3">
+        <v>91520</v>
+      </c>
+      <c r="P14" s="3">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="3">
+        <v>119900</v>
+      </c>
+      <c r="C15" s="3">
+        <v>100</v>
+      </c>
+      <c r="D15" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E15" s="4">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G15" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="H15" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I15" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="J15" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="K15" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="L15" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="M15" s="3">
+        <v>66730</v>
+      </c>
+      <c r="N15" s="3">
+        <v>724</v>
+      </c>
+      <c r="O15" s="3">
+        <v>91270</v>
+      </c>
+      <c r="P15" s="3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="3">
+        <v>117500</v>
+      </c>
+      <c r="C16" s="3">
+        <v>100</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="F16" s="4">
+        <v>9</v>
+      </c>
+      <c r="G16" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="H16" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I16" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="J16" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="L16" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M16" s="3">
+        <v>68340</v>
+      </c>
+      <c r="N16" s="3">
+        <v>481</v>
+      </c>
+      <c r="O16" s="3">
+        <v>93320</v>
+      </c>
+      <c r="P16" s="3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B17" s="3">
+        <v>117200</v>
+      </c>
+      <c r="C17" s="3">
+        <v>100</v>
+      </c>
+      <c r="D17" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F17" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G17" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="H17" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="J17" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <v>8</v>
+      </c>
+      <c r="L17" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M17" s="3">
+        <v>68780</v>
+      </c>
+      <c r="N17" s="3">
+        <v>308</v>
+      </c>
+      <c r="O17" s="3">
+        <v>93560</v>
+      </c>
+      <c r="P17" s="3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B18" s="3">
+        <v>116800</v>
+      </c>
+      <c r="C18" s="3">
+        <v>100</v>
+      </c>
+      <c r="D18" s="4">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="F18" s="4">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="H18" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="I18" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="J18" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="K18" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="L18" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>71210</v>
+      </c>
+      <c r="N18" s="3">
+        <v>326</v>
+      </c>
+      <c r="O18" s="3">
+        <v>95840</v>
+      </c>
+      <c r="P18" s="3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="3">
+        <v>116000</v>
+      </c>
+      <c r="C19" s="3">
+        <v>100</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F19" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G19" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="H19" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I19" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="J19" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="K19" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L19" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M19" s="3">
+        <v>70080</v>
+      </c>
+      <c r="N19" s="3">
+        <v>495</v>
+      </c>
+      <c r="O19" s="3">
+        <v>96780</v>
+      </c>
+      <c r="P19" s="3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B20" s="3">
+        <v>114400</v>
+      </c>
+      <c r="C20" s="3">
+        <v>100</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="F20" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G20" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="H20" s="4">
+        <v>17</v>
+      </c>
+      <c r="I20" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="J20" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="K20" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M20" s="3">
+        <v>69310</v>
+      </c>
+      <c r="N20" s="3">
+        <v>381</v>
+      </c>
+      <c r="O20" s="3">
+        <v>94770</v>
+      </c>
+      <c r="P20" s="3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="3">
+        <v>113300</v>
+      </c>
+      <c r="C21" s="3">
+        <v>100</v>
+      </c>
+      <c r="D21" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="E21" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="F21" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G21" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>13</v>
+      </c>
+      <c r="J21" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="K21" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="M21" s="3">
+        <v>68250</v>
+      </c>
+      <c r="N21" s="3">
+        <v>496</v>
+      </c>
+      <c r="O21" s="3">
+        <v>93080</v>
+      </c>
+      <c r="P21" s="3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B22" s="3">
+        <v>112000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>100</v>
+      </c>
+      <c r="D22" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="E22" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="F22" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="G22" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="H22" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I22" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="J22" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="K22" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L22" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>68350</v>
+      </c>
+      <c r="N22" s="3">
+        <v>488</v>
+      </c>
+      <c r="O22" s="3">
+        <v>93200</v>
+      </c>
+      <c r="P22" s="3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B23" s="3">
+        <v>111300</v>
+      </c>
+      <c r="C23" s="3">
+        <v>100</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E23" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F23" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="J23" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="K23" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L23" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>68310</v>
+      </c>
+      <c r="N23" s="3">
+        <v>368</v>
+      </c>
+      <c r="O23" s="3">
+        <v>93190</v>
+      </c>
+      <c r="P23" s="3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B24" s="3">
+        <v>109300</v>
+      </c>
+      <c r="C24" s="3">
+        <v>100</v>
+      </c>
+      <c r="D24" s="4">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F24" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G24" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="H24" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="I24" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="J24" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="K24" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="L24" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="M24" s="3">
+        <v>68870</v>
+      </c>
+      <c r="N24" s="3">
+        <v>346</v>
+      </c>
+      <c r="O24" s="3">
+        <v>94930</v>
+      </c>
+      <c r="P24" s="3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="3">
+        <v>108200</v>
+      </c>
+      <c r="C25" s="3">
+        <v>100</v>
+      </c>
+      <c r="D25" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="E25" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F25" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G25" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="H25" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="K25" s="4">
+        <v>8</v>
+      </c>
+      <c r="L25" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="M25" s="3">
+        <v>70020</v>
+      </c>
+      <c r="N25" s="3">
+        <v>362</v>
+      </c>
+      <c r="O25" s="3">
+        <v>95280</v>
+      </c>
+      <c r="P25" s="3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="3">
+        <v>106400</v>
+      </c>
+      <c r="C26" s="3">
+        <v>100</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="E26" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="F26" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="G26" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="H26" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I26" s="4">
+        <v>13</v>
+      </c>
+      <c r="J26" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="K26" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="L26" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M26" s="3">
+        <v>70210</v>
+      </c>
+      <c r="N26" s="3">
+        <v>539</v>
+      </c>
+      <c r="O26" s="3">
+        <v>94430</v>
+      </c>
+      <c r="P26" s="3">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B27" s="3">
+        <v>103900</v>
+      </c>
+      <c r="C27" s="3">
+        <v>100</v>
+      </c>
+      <c r="D27" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="E27" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="F27" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>12</v>
+      </c>
+      <c r="H27" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="J27" s="4">
+        <v>17</v>
+      </c>
+      <c r="K27" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="L27" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="M27" s="3">
+        <v>68470</v>
+      </c>
+      <c r="N27" s="3">
+        <v>666</v>
+      </c>
+      <c r="O27" s="3">
+        <v>91310</v>
+      </c>
+      <c r="P27" s="3">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B28" s="3">
+        <v>102500</v>
+      </c>
+      <c r="C28" s="3">
+        <v>100</v>
+      </c>
+      <c r="D28" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E28" s="4">
+        <v>9</v>
+      </c>
+      <c r="F28" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="G28" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="I28" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="J28" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="K28" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="L28" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="M28" s="3">
+        <v>66050</v>
+      </c>
+      <c r="N28" s="3">
+        <v>502</v>
+      </c>
+      <c r="O28" s="3">
+        <v>88690</v>
+      </c>
+      <c r="P28" s="3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B29" s="3">
+        <v>101000</v>
+      </c>
+      <c r="C29" s="3">
+        <v>100</v>
+      </c>
+      <c r="D29" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="E29" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="F29" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="G29" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="H29" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="I29" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="J29" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="K29" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="L29" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="M29" s="3">
+        <v>64710</v>
+      </c>
+      <c r="N29" s="3">
+        <v>537</v>
+      </c>
+      <c r="O29" s="3">
+        <v>85910</v>
+      </c>
+      <c r="P29" s="3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="3">
+        <v>99630</v>
+      </c>
+      <c r="C30" s="3">
+        <v>100</v>
+      </c>
+      <c r="D30" s="4">
+        <v>9</v>
+      </c>
+      <c r="E30" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="F30" s="4">
+        <v>9</v>
+      </c>
+      <c r="G30" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="H30" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I30" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="J30" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="K30" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="L30" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="M30" s="3">
+        <v>63770</v>
+      </c>
+      <c r="N30" s="3">
+        <v>606</v>
+      </c>
+      <c r="O30" s="3">
+        <v>84090</v>
+      </c>
+      <c r="P30" s="3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="3">
+        <v>98990</v>
+      </c>
+      <c r="C31" s="3">
+        <v>100</v>
+      </c>
+      <c r="D31" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="E31" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="F31" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G31" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="H31" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="I31" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="J31" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="K31" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="L31" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="M31" s="3">
+        <v>61800</v>
+      </c>
+      <c r="N31" s="3">
+        <v>463</v>
+      </c>
+      <c r="O31" s="3">
+        <v>82620</v>
+      </c>
+      <c r="P31" s="3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="3">
+        <v>97110</v>
+      </c>
+      <c r="C32" s="3">
+        <v>100</v>
+      </c>
+      <c r="D32" s="4">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F32" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="G32" s="4">
+        <v>13</v>
+      </c>
+      <c r="H32" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I32" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="J32" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="K32" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="L32" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="M32" s="3">
+        <v>61150</v>
+      </c>
+      <c r="N32" s="3">
+        <v>470</v>
+      </c>
+      <c r="O32" s="3">
+        <v>81090</v>
+      </c>
+      <c r="P32" s="3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="3">
+        <v>96430</v>
+      </c>
+      <c r="C33" s="3">
+        <v>100</v>
+      </c>
+      <c r="D33" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="E33" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F33" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="H33" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="I33" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="J33" s="4">
+        <v>16</v>
+      </c>
+      <c r="K33" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="L33" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M33" s="3">
+        <v>61450</v>
+      </c>
+      <c r="N33" s="3">
+        <v>478</v>
+      </c>
+      <c r="O33" s="3">
+        <v>77910</v>
+      </c>
+      <c r="P33" s="3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>1991</v>
+      </c>
+      <c r="B34" s="3">
+        <v>95670</v>
+      </c>
+      <c r="C34" s="3">
+        <v>100</v>
+      </c>
+      <c r="D34" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E34" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="F34" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="G34" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="H34" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I34" s="4">
+        <v>14</v>
+      </c>
+      <c r="J34" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="K34" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="L34" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M34" s="3">
+        <v>61960</v>
+      </c>
+      <c r="N34" s="3">
+        <v>491</v>
+      </c>
+      <c r="O34" s="3">
+        <v>78000</v>
+      </c>
+      <c r="P34" s="3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>1990</v>
+      </c>
+      <c r="B35" s="3">
+        <v>94310</v>
+      </c>
+      <c r="C35" s="3">
+        <v>100</v>
+      </c>
+      <c r="D35" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="E35" s="4">
+        <v>9</v>
+      </c>
+      <c r="F35" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G35" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="H35" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="I35" s="4">
+        <v>14.1</v>
+      </c>
+      <c r="J35" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="K35" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="L35" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M35" s="3">
+        <v>63830</v>
+      </c>
+      <c r="N35" s="3">
+        <v>536</v>
+      </c>
+      <c r="O35" s="3">
+        <v>79730</v>
+      </c>
+      <c r="P35" s="3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>1989</v>
+      </c>
+      <c r="B36" s="3">
+        <v>93350</v>
+      </c>
+      <c r="C36" s="3">
+        <v>100</v>
+      </c>
+      <c r="D36" s="4">
+        <v>9</v>
+      </c>
+      <c r="E36" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G36" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="H36" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="I36" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="J36" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="K36" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="L36" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="M36" s="3">
+        <v>64610</v>
+      </c>
+      <c r="N36" s="3">
+        <v>585</v>
+      </c>
+      <c r="O36" s="3">
+        <v>81630</v>
+      </c>
+      <c r="P36" s="3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>1988</v>
+      </c>
+      <c r="B37" s="3">
+        <v>92830</v>
+      </c>
+      <c r="C37" s="3">
+        <v>100</v>
+      </c>
+      <c r="D37" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E37" s="4">
+        <v>9</v>
+      </c>
+      <c r="F37" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G37" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="H37" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="I37" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="J37" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K37" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="L37" s="4">
+        <v>5</v>
+      </c>
+      <c r="M37" s="3">
+        <v>63530</v>
+      </c>
+      <c r="N37" s="3">
+        <v>510</v>
+      </c>
+      <c r="O37" s="3">
+        <v>79370</v>
+      </c>
+      <c r="P37" s="3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="3">
+        <v>91120</v>
+      </c>
+      <c r="C38" s="3">
+        <v>100</v>
+      </c>
+      <c r="D38" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E38" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F38" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G38" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="H38" s="4">
+        <v>18</v>
+      </c>
+      <c r="I38" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="J38" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="K38" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="L38" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="M38" s="3">
+        <v>63060</v>
+      </c>
+      <c r="N38" s="3">
+        <v>490</v>
+      </c>
+      <c r="O38" s="3">
+        <v>78420</v>
+      </c>
+      <c r="P38" s="3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B39" s="3">
+        <v>89480</v>
+      </c>
+      <c r="C39" s="3">
+        <v>100</v>
+      </c>
+      <c r="D39" s="4">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="G39" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="H39" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="I39" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="J39" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="K39" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="L39" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M39" s="3">
+        <v>62280</v>
+      </c>
+      <c r="N39" s="3">
+        <v>531</v>
+      </c>
+      <c r="O39" s="3">
+        <v>76940</v>
+      </c>
+      <c r="P39" s="3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="3">
+        <v>88460</v>
+      </c>
+      <c r="C40" s="3">
+        <v>100</v>
+      </c>
+      <c r="D40" s="4">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F40" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G40" s="4">
+        <v>13</v>
+      </c>
+      <c r="H40" s="4">
+        <v>19</v>
+      </c>
+      <c r="I40" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="J40" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="K40" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="L40" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="M40" s="3">
+        <v>60050</v>
+      </c>
+      <c r="N40" s="3">
+        <v>535</v>
+      </c>
+      <c r="O40" s="3">
+        <v>73900</v>
+      </c>
+      <c r="P40" s="3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="3">
+        <v>86790</v>
+      </c>
+      <c r="C41" s="3">
+        <v>100</v>
+      </c>
+      <c r="D41" s="4">
+        <v>10</v>
+      </c>
+      <c r="E41" s="4">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="G41" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="H41" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="I41" s="4">
+        <v>14</v>
+      </c>
+      <c r="J41" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="K41" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="L41" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="M41" s="3">
+        <v>58930</v>
+      </c>
+      <c r="N41" s="3">
+        <v>441</v>
+      </c>
+      <c r="O41" s="3">
+        <v>72200</v>
+      </c>
+      <c r="P41" s="3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>1983</v>
+      </c>
+      <c r="B42" s="3">
+        <v>85410</v>
+      </c>
+      <c r="C42" s="3">
+        <v>100</v>
+      </c>
+      <c r="D42" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="E42" s="4">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G42" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="H42" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="I42" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="J42" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="K42" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="L42" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="M42" s="3">
+        <v>57210</v>
+      </c>
+      <c r="N42" s="3">
+        <v>428</v>
+      </c>
+      <c r="O42" s="3">
+        <v>69580</v>
+      </c>
+      <c r="P42" s="3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B43" s="3">
+        <v>83920</v>
+      </c>
+      <c r="C43" s="3">
+        <v>100</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="E43" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F43" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G43" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="H43" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I43" s="4">
+        <v>14.1</v>
+      </c>
+      <c r="J43" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="K43" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L43" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="M43" s="3">
+        <v>57570</v>
+      </c>
+      <c r="N43" s="3">
+        <v>427</v>
+      </c>
+      <c r="O43" s="3">
+        <v>69380</v>
+      </c>
+      <c r="P43" s="3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>1981</v>
+      </c>
+      <c r="B44" s="3">
+        <v>83530</v>
+      </c>
+      <c r="C44" s="3">
+        <v>100</v>
+      </c>
+      <c r="D44" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="E44" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="F44" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G44" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="H44" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="I44" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="J44" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="K44" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="L44" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="M44" s="3">
+        <v>57730</v>
+      </c>
+      <c r="N44" s="3">
+        <v>498</v>
+      </c>
+      <c r="O44" s="3">
+        <v>68970</v>
+      </c>
+      <c r="P44" s="3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>1980</v>
+      </c>
+      <c r="B45" s="3">
+        <v>82370</v>
+      </c>
+      <c r="C45" s="3">
+        <v>100</v>
+      </c>
+      <c r="D45" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E45" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="G45" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="H45" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I45" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="J45" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="K45" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L45" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="M45" s="3">
+        <v>58720</v>
+      </c>
+      <c r="N45" s="3">
+        <v>496</v>
+      </c>
+      <c r="O45" s="3">
+        <v>69840</v>
+      </c>
+      <c r="P45" s="3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="3">
+        <v>80780</v>
+      </c>
+      <c r="C46" s="3">
+        <v>100</v>
+      </c>
+      <c r="D46" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E46" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="F46" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="H46" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="I46" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="J46" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="K46" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="L46" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="M46" s="3">
+        <v>60610</v>
+      </c>
+      <c r="N46" s="3">
+        <v>472</v>
+      </c>
+      <c r="O46" s="3">
+        <v>71990</v>
+      </c>
+      <c r="P46" s="3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B47" s="3">
+        <v>77330</v>
+      </c>
+      <c r="C47" s="3">
+        <v>100</v>
+      </c>
+      <c r="D47" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="E47" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G47" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="H47" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="I47" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="J47" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="K47" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L47" s="4">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
+        <v>60720</v>
+      </c>
+      <c r="N47" s="3">
+        <v>404</v>
+      </c>
+      <c r="O47" s="3">
+        <v>71470</v>
+      </c>
+      <c r="P47" s="3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>1977</v>
+      </c>
+      <c r="B48" s="3">
+        <v>76030</v>
+      </c>
+      <c r="C48" s="3">
+        <v>100</v>
+      </c>
+      <c r="D48" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E48" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="F48" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="G48" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="I48" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="J48" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="K48" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="L48" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="M48" s="3">
+        <v>58450</v>
+      </c>
+      <c r="N48" s="3">
+        <v>361</v>
+      </c>
+      <c r="O48" s="3">
+        <v>69330</v>
+      </c>
+      <c r="P48" s="3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="3">
+        <v>74140</v>
+      </c>
+      <c r="C49" s="3">
+        <v>100</v>
+      </c>
+      <c r="D49" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="G49" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="H49" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I49" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="J49" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="K49" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="L49" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="M49" s="3">
+        <v>58160</v>
+      </c>
+      <c r="N49" s="3">
+        <v>354</v>
+      </c>
+      <c r="O49" s="3">
+        <v>68420</v>
+      </c>
+      <c r="P49" s="3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="3">
+        <v>72870</v>
+      </c>
+      <c r="C50" s="3">
+        <v>100</v>
+      </c>
+      <c r="D50" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E50" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="F50" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="G50" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="H50" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="I50" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="J50" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="K50" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="L50" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M50" s="3">
+        <v>57180</v>
+      </c>
+      <c r="N50" s="3">
+        <v>383</v>
+      </c>
+      <c r="O50" s="3">
+        <v>66780</v>
+      </c>
+      <c r="P50" s="3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="3">
+        <v>71160</v>
+      </c>
+      <c r="C51" s="3">
+        <v>100</v>
+      </c>
+      <c r="D51" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E51" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="F51" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G51" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="H51" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="I51" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="J51" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="K51" s="4">
+        <v>4</v>
+      </c>
+      <c r="L51" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="M51" s="3">
+        <v>58780</v>
+      </c>
+      <c r="N51" s="3">
+        <v>371</v>
+      </c>
+      <c r="O51" s="3">
+        <v>68740</v>
+      </c>
+      <c r="P51" s="3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>1973</v>
+      </c>
+      <c r="B52" s="3">
+        <v>69860</v>
+      </c>
+      <c r="C52" s="3">
+        <v>100</v>
+      </c>
+      <c r="D52" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="E52" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="F52" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G52" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="H52" s="4">
+        <v>21.1</v>
+      </c>
+      <c r="I52" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="J52" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="K52" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="L52" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="M52" s="3">
+        <v>60610</v>
+      </c>
+      <c r="N52" s="3">
+        <v>379</v>
+      </c>
+      <c r="O52" s="3">
+        <v>70100</v>
+      </c>
+      <c r="P52" s="3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="3">
+        <v>68250</v>
+      </c>
+      <c r="C53" s="3">
+        <v>100</v>
+      </c>
+      <c r="D53" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="E53" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="F53" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="G53" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="H53" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="I53" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="J53" s="4">
+        <v>14</v>
+      </c>
+      <c r="K53" s="4">
+        <v>4</v>
+      </c>
+      <c r="L53" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="M53" s="3">
+        <v>59330</v>
+      </c>
+      <c r="N53" s="3">
+        <v>372</v>
+      </c>
+      <c r="O53" s="3">
+        <v>69060</v>
+      </c>
+      <c r="P53" s="3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="3">
+        <v>66680</v>
+      </c>
+      <c r="C54" s="3">
+        <v>100</v>
+      </c>
+      <c r="D54" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="E54" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F54" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="G54" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="H54" s="4">
+        <v>22.3</v>
+      </c>
+      <c r="I54" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="J54" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="K54" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="M54" s="3">
+        <v>57090</v>
+      </c>
+      <c r="N54" s="3">
+        <v>364</v>
+      </c>
+      <c r="O54" s="3">
+        <v>65660</v>
+      </c>
+      <c r="P54" s="3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B55" s="3">
+        <v>64780</v>
+      </c>
+      <c r="C55" s="3">
+        <v>100</v>
+      </c>
+      <c r="D55" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="E55" s="4">
+        <v>9</v>
+      </c>
+      <c r="F55" s="4">
+        <v>9</v>
+      </c>
+      <c r="G55" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="H55" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="I55" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="J55" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="K55" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="L55" s="4">
+        <v>2</v>
+      </c>
+      <c r="M55" s="3">
+        <v>57580</v>
+      </c>
+      <c r="N55" s="3">
+        <v>347</v>
+      </c>
+      <c r="O55" s="3">
+        <v>65940</v>
+      </c>
+      <c r="P55" s="3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>1969</v>
+      </c>
+      <c r="B56" s="3">
+        <v>63400</v>
+      </c>
+      <c r="C56" s="3">
+        <v>100</v>
+      </c>
+      <c r="D56" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="E56" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F56" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G56" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="H56" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="I56" s="4">
+        <v>16</v>
+      </c>
+      <c r="J56" s="4">
+        <v>13</v>
+      </c>
+      <c r="K56" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="M56" s="3">
+        <v>58010</v>
+      </c>
+      <c r="N56" s="3">
+        <v>353</v>
+      </c>
+      <c r="O56" s="3">
+        <v>65990</v>
+      </c>
+      <c r="P56" s="3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>1968</v>
+      </c>
+      <c r="B57" s="3">
+        <v>62210</v>
+      </c>
+      <c r="C57" s="3">
+        <v>100</v>
+      </c>
+      <c r="D57" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="E57" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G57" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="H57" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="I57" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="J57" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="K57" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="L57" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="M57" s="3">
+        <v>55810</v>
+      </c>
+      <c r="N57" s="3">
+        <v>332</v>
+      </c>
+      <c r="O57" s="3">
+        <v>63140</v>
+      </c>
+      <c r="P57" s="3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="3">
+        <v>60810</v>
+      </c>
+      <c r="C58" s="3">
+        <v>100</v>
+      </c>
+      <c r="D58" s="4">
+        <v>13</v>
+      </c>
+      <c r="E58" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="F58" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="G58" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="H58" s="4">
+        <v>24.6</v>
+      </c>
+      <c r="I58" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="J58" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="K58" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="L58" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="M58" s="3">
+        <v>53530</v>
+      </c>
+      <c r="N58" s="3">
+        <v>320</v>
+      </c>
+      <c r="O58" s="3">
+        <v>59860</v>
+      </c>
+      <c r="P58" s="3">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3732E22A-FD01-44BB-8B4C-737D6AB0BE10}">
   <dimension ref="A1:P508"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:P1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A486" sqref="A486:P486"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="16" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="12" width="9.7265625" customWidth="1"/>
+    <col min="13" max="16" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-    </row>
-    <row r="2" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12" t="s">
+      <c r="N4" s="13"/>
+      <c r="O4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="12"/>
-    </row>
-    <row r="5" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2016,27 +5025,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2023</v>
       </c>
@@ -2086,7 +5095,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
@@ -2136,7 +5145,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2021</v>
       </c>
@@ -2186,7 +5195,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2236,7 +5245,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2019</v>
       </c>
@@ -2286,7 +5295,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2018</v>
       </c>
@@ -2336,7 +5345,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -2386,7 +5395,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2017</v>
       </c>
@@ -2436,7 +5445,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2016</v>
       </c>
@@ -2486,7 +5495,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2015</v>
       </c>
@@ -2536,7 +5545,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2014</v>
       </c>
@@ -2586,7 +5595,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -2636,7 +5645,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -2686,7 +5695,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2012</v>
       </c>
@@ -2736,7 +5745,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2011</v>
       </c>
@@ -2786,7 +5795,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -2836,7 +5845,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -2886,7 +5895,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>2008</v>
       </c>
@@ -2936,7 +5945,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>2007</v>
       </c>
@@ -2986,7 +5995,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>2006</v>
       </c>
@@ -3036,7 +6045,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>2005</v>
       </c>
@@ -3086,7 +6095,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -3136,7 +6145,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>2003</v>
       </c>
@@ -3186,7 +6195,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>2002</v>
       </c>
@@ -3236,7 +6245,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>2001</v>
       </c>
@@ -3286,7 +6295,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>27</v>
       </c>
@@ -3336,7 +6345,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>28</v>
       </c>
@@ -3386,7 +6395,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>1998</v>
       </c>
@@ -3436,7 +6445,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>1997</v>
       </c>
@@ -3486,7 +6495,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>1996</v>
       </c>
@@ -3536,7 +6545,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>29</v>
       </c>
@@ -3586,7 +6595,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -3636,7 +6645,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -3686,7 +6695,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -3736,7 +6745,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>1991</v>
       </c>
@@ -3786,7 +6795,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>1990</v>
       </c>
@@ -3836,7 +6845,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>1989</v>
       </c>
@@ -3886,7 +6895,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>1988</v>
       </c>
@@ -3936,7 +6945,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>33</v>
       </c>
@@ -3986,7 +6995,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>1986</v>
       </c>
@@ -4036,7 +7045,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>34</v>
       </c>
@@ -4086,7 +7095,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>35</v>
       </c>
@@ -4136,7 +7145,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>1983</v>
       </c>
@@ -4186,7 +7195,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>1982</v>
       </c>
@@ -4236,7 +7245,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>1981</v>
       </c>
@@ -4286,7 +7295,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>1980</v>
       </c>
@@ -4336,7 +7345,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>36</v>
       </c>
@@ -4386,7 +7395,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>1978</v>
       </c>
@@ -4436,7 +7445,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>1977</v>
       </c>
@@ -4486,7 +7495,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>37</v>
       </c>
@@ -4536,7 +7545,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>38</v>
       </c>
@@ -4586,7 +7595,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>39</v>
       </c>
@@ -4636,7 +7645,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>1973</v>
       </c>
@@ -4686,7 +7695,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>40</v>
       </c>
@@ -4736,7 +7745,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>41</v>
       </c>
@@ -4786,7 +7795,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>1970</v>
       </c>
@@ -4836,7 +7845,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>1969</v>
       </c>
@@ -4886,7 +7895,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>1968</v>
       </c>
@@ -4936,7 +7945,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>42</v>
       </c>
@@ -4986,27 +7995,27 @@
         <v>320</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+    <row r="66" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>2023</v>
       </c>
@@ -5056,7 +8065,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>2022</v>
       </c>
@@ -5106,7 +8115,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>2021</v>
       </c>
@@ -5156,7 +8165,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>20</v>
       </c>
@@ -5206,7 +8215,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>2019</v>
       </c>
@@ -5256,7 +8265,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>2018</v>
       </c>
@@ -5306,7 +8315,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>21</v>
       </c>
@@ -5356,7 +8365,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>2017</v>
       </c>
@@ -5406,7 +8415,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>2016</v>
       </c>
@@ -5456,7 +8465,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>2015</v>
       </c>
@@ -5506,7 +8515,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>2014</v>
       </c>
@@ -5556,7 +8565,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>22</v>
       </c>
@@ -5606,7 +8615,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>23</v>
       </c>
@@ -5656,7 +8665,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>2012</v>
       </c>
@@ -5706,7 +8715,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>2011</v>
       </c>
@@ -5756,7 +8765,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>24</v>
       </c>
@@ -5806,7 +8815,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>25</v>
       </c>
@@ -5856,7 +8865,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>2008</v>
       </c>
@@ -5906,7 +8915,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>2007</v>
       </c>
@@ -5956,7 +8965,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>2006</v>
       </c>
@@ -6006,7 +9015,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>2005</v>
       </c>
@@ -6056,7 +9065,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>26</v>
       </c>
@@ -6106,7 +9115,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>2003</v>
       </c>
@@ -6156,7 +9165,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>2002</v>
       </c>
@@ -6206,27 +9215,27 @@
         <v>649</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+    <row r="91" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>2001</v>
       </c>
@@ -6276,7 +9285,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>27</v>
       </c>
@@ -6326,7 +9335,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>28</v>
       </c>
@@ -6376,7 +9385,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>1998</v>
       </c>
@@ -6426,7 +9435,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>1997</v>
       </c>
@@ -6476,7 +9485,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>1996</v>
       </c>
@@ -6526,7 +9535,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>29</v>
       </c>
@@ -6576,7 +9585,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>30</v>
       </c>
@@ -6626,7 +9635,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>31</v>
       </c>
@@ -6676,7 +9685,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>32</v>
       </c>
@@ -6726,7 +9735,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>1991</v>
       </c>
@@ -6776,7 +9785,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>1990</v>
       </c>
@@ -6826,7 +9835,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>1989</v>
       </c>
@@ -6876,7 +9885,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>1988</v>
       </c>
@@ -6926,7 +9935,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>33</v>
       </c>
@@ -6976,7 +9985,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>1986</v>
       </c>
@@ -7026,7 +10035,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>34</v>
       </c>
@@ -7076,7 +10085,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>35</v>
       </c>
@@ -7126,7 +10135,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>1983</v>
       </c>
@@ -7176,7 +10185,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>1982</v>
       </c>
@@ -7226,7 +10235,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>1981</v>
       </c>
@@ -7276,7 +10285,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>1980</v>
       </c>
@@ -7326,7 +10335,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>36</v>
       </c>
@@ -7376,7 +10385,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>1978</v>
       </c>
@@ -7426,7 +10435,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>1977</v>
       </c>
@@ -7476,7 +10485,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>37</v>
       </c>
@@ -7526,7 +10535,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>38</v>
       </c>
@@ -7576,7 +10585,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>39</v>
       </c>
@@ -7626,7 +10635,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>1973</v>
       </c>
@@ -7676,7 +10685,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>40</v>
       </c>
@@ -7726,7 +10735,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>41</v>
       </c>
@@ -7776,7 +10785,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>1970</v>
       </c>
@@ -7826,7 +10835,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>1969</v>
       </c>
@@ -7876,7 +10885,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>1968</v>
       </c>
@@ -7926,7 +10935,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>42</v>
       </c>
@@ -7976,27 +10985,27 @@
         <v>345</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
+    <row r="127" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
-      <c r="M127" s="9"/>
-      <c r="N127" s="9"/>
-      <c r="O127" s="9"/>
-      <c r="P127" s="9"/>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+      <c r="O127" s="10"/>
+      <c r="P127" s="10"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>2023</v>
       </c>
@@ -8046,7 +11055,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>2022</v>
       </c>
@@ -8096,7 +11105,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>2021</v>
       </c>
@@ -8146,7 +11155,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>20</v>
       </c>
@@ -8196,7 +11205,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>2019</v>
       </c>
@@ -8246,7 +11255,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>2018</v>
       </c>
@@ -8296,7 +11305,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>21</v>
       </c>
@@ -8346,7 +11355,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>2017</v>
       </c>
@@ -8396,7 +11405,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>2016</v>
       </c>
@@ -8446,7 +11455,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>2015</v>
       </c>
@@ -8496,7 +11505,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>2014</v>
       </c>
@@ -8546,7 +11555,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>22</v>
       </c>
@@ -8596,7 +11605,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>23</v>
       </c>
@@ -8646,7 +11655,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>2012</v>
       </c>
@@ -8696,7 +11705,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>2011</v>
       </c>
@@ -8746,7 +11755,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>24</v>
       </c>
@@ -8796,7 +11805,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>25</v>
       </c>
@@ -8846,7 +11855,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>2008</v>
       </c>
@@ -8896,7 +11905,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>2007</v>
       </c>
@@ -8946,7 +11955,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>2006</v>
       </c>
@@ -8996,7 +12005,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>2005</v>
       </c>
@@ -9046,7 +12055,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>26</v>
       </c>
@@ -9096,7 +12105,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>2003</v>
       </c>
@@ -9146,7 +12155,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>2002</v>
       </c>
@@ -9196,27 +12205,27 @@
         <v>700</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="9" t="s">
+    <row r="152" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="9"/>
-      <c r="J152" s="9"/>
-      <c r="K152" s="9"/>
-      <c r="L152" s="9"/>
-      <c r="M152" s="9"/>
-      <c r="N152" s="9"/>
-      <c r="O152" s="9"/>
-      <c r="P152" s="9"/>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="10"/>
+      <c r="K152" s="10"/>
+      <c r="L152" s="10"/>
+      <c r="M152" s="10"/>
+      <c r="N152" s="10"/>
+      <c r="O152" s="10"/>
+      <c r="P152" s="10"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>2001</v>
       </c>
@@ -9266,7 +12275,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>27</v>
       </c>
@@ -9316,7 +12325,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>28</v>
       </c>
@@ -9366,7 +12375,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>1998</v>
       </c>
@@ -9416,7 +12425,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>1997</v>
       </c>
@@ -9466,7 +12475,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>1996</v>
       </c>
@@ -9516,7 +12525,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>29</v>
       </c>
@@ -9566,7 +12575,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>30</v>
       </c>
@@ -9616,7 +12625,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>31</v>
       </c>
@@ -9666,7 +12675,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>32</v>
       </c>
@@ -9716,7 +12725,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>1991</v>
       </c>
@@ -9766,7 +12775,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>1990</v>
       </c>
@@ -9816,7 +12825,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>1989</v>
       </c>
@@ -9866,7 +12875,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>1988</v>
       </c>
@@ -9916,7 +12925,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>33</v>
       </c>
@@ -9966,7 +12975,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>1986</v>
       </c>
@@ -10016,7 +13025,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>34</v>
       </c>
@@ -10066,7 +13075,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>35</v>
       </c>
@@ -10116,7 +13125,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>1983</v>
       </c>
@@ -10166,7 +13175,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>1982</v>
       </c>
@@ -10216,7 +13225,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>1981</v>
       </c>
@@ -10266,7 +13275,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>1980</v>
       </c>
@@ -10316,7 +13325,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>36</v>
       </c>
@@ -10366,7 +13375,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>1978</v>
       </c>
@@ -10416,7 +13425,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>1977</v>
       </c>
@@ -10466,7 +13475,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>37</v>
       </c>
@@ -10516,7 +13525,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>38</v>
       </c>
@@ -10566,7 +13575,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>39</v>
       </c>
@@ -10616,7 +13625,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>1973</v>
       </c>
@@ -10666,7 +13675,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>40</v>
       </c>
@@ -10716,27 +13725,27 @@
         <v>533</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="9" t="s">
+    <row r="183" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B183" s="9"/>
-      <c r="C183" s="9"/>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9"/>
-      <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
-      <c r="H183" s="9"/>
-      <c r="I183" s="9"/>
-      <c r="J183" s="9"/>
-      <c r="K183" s="9"/>
-      <c r="L183" s="9"/>
-      <c r="M183" s="9"/>
-      <c r="N183" s="9"/>
-      <c r="O183" s="9"/>
-      <c r="P183" s="9"/>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="10"/>
+      <c r="K183" s="10"/>
+      <c r="L183" s="10"/>
+      <c r="M183" s="10"/>
+      <c r="N183" s="10"/>
+      <c r="O183" s="10"/>
+      <c r="P183" s="10"/>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>2023</v>
       </c>
@@ -10786,7 +13795,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>2022</v>
       </c>
@@ -10836,7 +13845,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>2021</v>
       </c>
@@ -10886,7 +13895,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>20</v>
       </c>
@@ -10936,7 +13945,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>2019</v>
       </c>
@@ -10986,7 +13995,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>2018</v>
       </c>
@@ -11036,7 +14045,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>21</v>
       </c>
@@ -11086,7 +14095,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>2017</v>
       </c>
@@ -11136,7 +14145,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>2016</v>
       </c>
@@ -11186,7 +14195,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>2015</v>
       </c>
@@ -11236,7 +14245,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>2014</v>
       </c>
@@ -11286,7 +14295,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>22</v>
       </c>
@@ -11336,7 +14345,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>23</v>
       </c>
@@ -11386,7 +14395,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>2012</v>
       </c>
@@ -11436,7 +14445,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>2011</v>
       </c>
@@ -11486,7 +14495,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>24</v>
       </c>
@@ -11536,7 +14545,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>25</v>
       </c>
@@ -11586,7 +14595,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>2008</v>
       </c>
@@ -11636,7 +14645,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>2007</v>
       </c>
@@ -11686,7 +14695,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>2006</v>
       </c>
@@ -11736,7 +14745,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>2005</v>
       </c>
@@ -11786,7 +14795,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>26</v>
       </c>
@@ -11836,7 +14845,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>2003</v>
       </c>
@@ -11886,7 +14895,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>2002</v>
       </c>
@@ -11936,27 +14945,27 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="9" t="s">
+    <row r="208" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B208" s="9"/>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="9"/>
-      <c r="F208" s="9"/>
-      <c r="G208" s="9"/>
-      <c r="H208" s="9"/>
-      <c r="I208" s="9"/>
-      <c r="J208" s="9"/>
-      <c r="K208" s="9"/>
-      <c r="L208" s="9"/>
-      <c r="M208" s="9"/>
-      <c r="N208" s="9"/>
-      <c r="O208" s="9"/>
-      <c r="P208" s="9"/>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+      <c r="H208" s="10"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="10"/>
+      <c r="K208" s="10"/>
+      <c r="L208" s="10"/>
+      <c r="M208" s="10"/>
+      <c r="N208" s="10"/>
+      <c r="O208" s="10"/>
+      <c r="P208" s="10"/>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>2023</v>
       </c>
@@ -12006,7 +15015,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>2022</v>
       </c>
@@ -12056,7 +15065,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>2021</v>
       </c>
@@ -12106,7 +15115,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>20</v>
       </c>
@@ -12156,7 +15165,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>2019</v>
       </c>
@@ -12206,7 +15215,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>2018</v>
       </c>
@@ -12256,7 +15265,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>21</v>
       </c>
@@ -12306,7 +15315,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>2017</v>
       </c>
@@ -12356,7 +15365,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>2016</v>
       </c>
@@ -12406,7 +15415,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>2015</v>
       </c>
@@ -12456,7 +15465,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>2014</v>
       </c>
@@ -12506,7 +15515,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>22</v>
       </c>
@@ -12556,7 +15565,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>23</v>
       </c>
@@ -12606,7 +15615,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>2012</v>
       </c>
@@ -12656,7 +15665,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>2011</v>
       </c>
@@ -12706,7 +15715,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>24</v>
       </c>
@@ -12756,7 +15765,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>25</v>
       </c>
@@ -12806,7 +15815,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>2008</v>
       </c>
@@ -12856,7 +15865,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>2007</v>
       </c>
@@ -12906,7 +15915,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>2006</v>
       </c>
@@ -12956,7 +15965,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>2005</v>
       </c>
@@ -13006,7 +16015,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>26</v>
       </c>
@@ -13056,7 +16065,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>2003</v>
       </c>
@@ -13106,7 +16115,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>2002</v>
       </c>
@@ -13156,27 +16165,27 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="9" t="s">
+    <row r="233" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B233" s="9"/>
-      <c r="C233" s="9"/>
-      <c r="D233" s="9"/>
-      <c r="E233" s="9"/>
-      <c r="F233" s="9"/>
-      <c r="G233" s="9"/>
-      <c r="H233" s="9"/>
-      <c r="I233" s="9"/>
-      <c r="J233" s="9"/>
-      <c r="K233" s="9"/>
-      <c r="L233" s="9"/>
-      <c r="M233" s="9"/>
-      <c r="N233" s="9"/>
-      <c r="O233" s="9"/>
-      <c r="P233" s="9"/>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B233" s="10"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="10"/>
+      <c r="K233" s="10"/>
+      <c r="L233" s="10"/>
+      <c r="M233" s="10"/>
+      <c r="N233" s="10"/>
+      <c r="O233" s="10"/>
+      <c r="P233" s="10"/>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>2001</v>
       </c>
@@ -13226,7 +16235,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>27</v>
       </c>
@@ -13276,7 +16285,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>28</v>
       </c>
@@ -13326,7 +16335,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>1998</v>
       </c>
@@ -13376,7 +16385,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>1997</v>
       </c>
@@ -13426,7 +16435,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>1996</v>
       </c>
@@ -13476,7 +16485,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>29</v>
       </c>
@@ -13526,7 +16535,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>30</v>
       </c>
@@ -13576,7 +16585,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>31</v>
       </c>
@@ -13626,7 +16635,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>32</v>
       </c>
@@ -13676,7 +16685,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>1991</v>
       </c>
@@ -13726,7 +16735,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>1990</v>
       </c>
@@ -13776,7 +16785,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>1989</v>
       </c>
@@ -13826,7 +16835,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>1988</v>
       </c>
@@ -13876,7 +16885,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
         <v>33</v>
       </c>
@@ -13926,7 +16935,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>1986</v>
       </c>
@@ -13976,7 +16985,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>34</v>
       </c>
@@ -14026,7 +17035,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>35</v>
       </c>
@@ -14076,7 +17085,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>1983</v>
       </c>
@@ -14126,7 +17135,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>1982</v>
       </c>
@@ -14176,7 +17185,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>1981</v>
       </c>
@@ -14226,7 +17235,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>1980</v>
       </c>
@@ -14276,7 +17285,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>36</v>
       </c>
@@ -14326,7 +17335,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>1978</v>
       </c>
@@ -14376,7 +17385,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>1977</v>
       </c>
@@ -14426,7 +17435,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A259" s="5" t="s">
         <v>37</v>
       </c>
@@ -14476,7 +17485,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A260" s="5" t="s">
         <v>38</v>
       </c>
@@ -14526,7 +17535,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A261" s="5" t="s">
         <v>39</v>
       </c>
@@ -14576,7 +17585,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>1973</v>
       </c>
@@ -14626,7 +17635,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A263" s="5" t="s">
         <v>40</v>
       </c>
@@ -14676,7 +17685,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="s">
         <v>41</v>
       </c>
@@ -14726,7 +17735,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>1970</v>
       </c>
@@ -14776,7 +17785,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>1969</v>
       </c>
@@ -14826,7 +17835,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>1968</v>
       </c>
@@ -14876,7 +17885,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A268" s="5" t="s">
         <v>42</v>
       </c>
@@ -14926,27 +17935,27 @@
         <v>715</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="9" t="s">
+    <row r="269" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B269" s="9"/>
-      <c r="C269" s="9"/>
-      <c r="D269" s="9"/>
-      <c r="E269" s="9"/>
-      <c r="F269" s="9"/>
-      <c r="G269" s="9"/>
-      <c r="H269" s="9"/>
-      <c r="I269" s="9"/>
-      <c r="J269" s="9"/>
-      <c r="K269" s="9"/>
-      <c r="L269" s="9"/>
-      <c r="M269" s="9"/>
-      <c r="N269" s="9"/>
-      <c r="O269" s="9"/>
-      <c r="P269" s="9"/>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B269" s="10"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="10"/>
+      <c r="G269" s="10"/>
+      <c r="H269" s="10"/>
+      <c r="I269" s="10"/>
+      <c r="J269" s="10"/>
+      <c r="K269" s="10"/>
+      <c r="L269" s="10"/>
+      <c r="M269" s="10"/>
+      <c r="N269" s="10"/>
+      <c r="O269" s="10"/>
+      <c r="P269" s="10"/>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>2023</v>
       </c>
@@ -14996,7 +18005,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>2022</v>
       </c>
@@ -15046,7 +18055,7 @@
         <v>4943</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>2021</v>
       </c>
@@ -15096,7 +18105,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A273" s="5" t="s">
         <v>20</v>
       </c>
@@ -15146,7 +18155,7 @@
         <v>4949</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>2019</v>
       </c>
@@ -15196,7 +18205,7 @@
         <v>5134</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>2018</v>
       </c>
@@ -15246,7 +18255,7 @@
         <v>4233</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A276" s="5" t="s">
         <v>21</v>
       </c>
@@ -15296,7 +18305,7 @@
         <v>5131</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>2017</v>
       </c>
@@ -15346,7 +18355,7 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>2016</v>
       </c>
@@ -15396,7 +18405,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>2015</v>
       </c>
@@ -15446,7 +18455,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>2014</v>
       </c>
@@ -15496,7 +18505,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A281" s="5" t="s">
         <v>22</v>
       </c>
@@ -15546,7 +18555,7 @@
         <v>8847</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A282" s="5" t="s">
         <v>23</v>
       </c>
@@ -15596,7 +18605,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>2012</v>
       </c>
@@ -15646,7 +18655,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>2011</v>
       </c>
@@ -15696,7 +18705,7 @@
         <v>4436</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A285" s="5" t="s">
         <v>24</v>
       </c>
@@ -15746,7 +18755,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A286" s="5" t="s">
         <v>25</v>
       </c>
@@ -15796,7 +18805,7 @@
         <v>3997</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>2008</v>
       </c>
@@ -15846,7 +18855,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>2007</v>
       </c>
@@ -15896,7 +18905,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>2006</v>
       </c>
@@ -15946,7 +18955,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>2005</v>
       </c>
@@ -15996,7 +19005,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A291" s="5" t="s">
         <v>26</v>
       </c>
@@ -16046,7 +19055,7 @@
         <v>3639</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>2003</v>
       </c>
@@ -16096,7 +19105,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>2002</v>
       </c>
@@ -16146,27 +19155,27 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="9" t="s">
+    <row r="294" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B294" s="9"/>
-      <c r="C294" s="9"/>
-      <c r="D294" s="9"/>
-      <c r="E294" s="9"/>
-      <c r="F294" s="9"/>
-      <c r="G294" s="9"/>
-      <c r="H294" s="9"/>
-      <c r="I294" s="9"/>
-      <c r="J294" s="9"/>
-      <c r="K294" s="9"/>
-      <c r="L294" s="9"/>
-      <c r="M294" s="9"/>
-      <c r="N294" s="9"/>
-      <c r="O294" s="9"/>
-      <c r="P294" s="9"/>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B294" s="10"/>
+      <c r="C294" s="10"/>
+      <c r="D294" s="10"/>
+      <c r="E294" s="10"/>
+      <c r="F294" s="10"/>
+      <c r="G294" s="10"/>
+      <c r="H294" s="10"/>
+      <c r="I294" s="10"/>
+      <c r="J294" s="10"/>
+      <c r="K294" s="10"/>
+      <c r="L294" s="10"/>
+      <c r="M294" s="10"/>
+      <c r="N294" s="10"/>
+      <c r="O294" s="10"/>
+      <c r="P294" s="10"/>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>2023</v>
       </c>
@@ -16216,7 +19225,7 @@
         <v>5301</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>2022</v>
       </c>
@@ -16266,7 +19275,7 @@
         <v>5145</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>2021</v>
       </c>
@@ -16316,7 +19325,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A298" s="5" t="s">
         <v>20</v>
       </c>
@@ -16366,7 +19375,7 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>2019</v>
       </c>
@@ -16416,7 +19425,7 @@
         <v>5248</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>2018</v>
       </c>
@@ -16466,7 +19475,7 @@
         <v>4462</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A301" s="5" t="s">
         <v>21</v>
       </c>
@@ -16516,7 +19525,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>2017</v>
       </c>
@@ -16566,7 +19575,7 @@
         <v>4944</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>2016</v>
       </c>
@@ -16616,7 +19625,7 @@
         <v>3728</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>2015</v>
       </c>
@@ -16666,7 +19675,7 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>2014</v>
       </c>
@@ -16716,7 +19725,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A306" s="5" t="s">
         <v>22</v>
       </c>
@@ -16766,7 +19775,7 @@
         <v>9354</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A307" s="5" t="s">
         <v>23</v>
       </c>
@@ -16816,7 +19825,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>2012</v>
       </c>
@@ -16866,7 +19875,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>2011</v>
       </c>
@@ -16916,7 +19925,7 @@
         <v>4479</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A310" s="5" t="s">
         <v>24</v>
       </c>
@@ -16966,7 +19975,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A311" s="5" t="s">
         <v>25</v>
       </c>
@@ -17016,7 +20025,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>2008</v>
       </c>
@@ -17066,7 +20075,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>2007</v>
       </c>
@@ -17116,7 +20125,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>2006</v>
       </c>
@@ -17166,7 +20175,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>2005</v>
       </c>
@@ -17216,7 +20225,7 @@
         <v>3477</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A316" s="5" t="s">
         <v>26</v>
       </c>
@@ -17266,7 +20275,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>2003</v>
       </c>
@@ -17316,7 +20325,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>2002</v>
       </c>
@@ -17366,27 +20375,27 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="9" t="s">
+    <row r="319" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B319" s="9"/>
-      <c r="C319" s="9"/>
-      <c r="D319" s="9"/>
-      <c r="E319" s="9"/>
-      <c r="F319" s="9"/>
-      <c r="G319" s="9"/>
-      <c r="H319" s="9"/>
-      <c r="I319" s="9"/>
-      <c r="J319" s="9"/>
-      <c r="K319" s="9"/>
-      <c r="L319" s="9"/>
-      <c r="M319" s="9"/>
-      <c r="N319" s="9"/>
-      <c r="O319" s="9"/>
-      <c r="P319" s="9"/>
-    </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B319" s="10"/>
+      <c r="C319" s="10"/>
+      <c r="D319" s="10"/>
+      <c r="E319" s="10"/>
+      <c r="F319" s="10"/>
+      <c r="G319" s="10"/>
+      <c r="H319" s="10"/>
+      <c r="I319" s="10"/>
+      <c r="J319" s="10"/>
+      <c r="K319" s="10"/>
+      <c r="L319" s="10"/>
+      <c r="M319" s="10"/>
+      <c r="N319" s="10"/>
+      <c r="O319" s="10"/>
+      <c r="P319" s="10"/>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>2001</v>
       </c>
@@ -17436,7 +20445,7 @@
         <v>4633</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A321" s="5" t="s">
         <v>27</v>
       </c>
@@ -17486,7 +20495,7 @@
         <v>4145</v>
       </c>
     </row>
-    <row r="322" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A322" s="5" t="s">
         <v>28</v>
       </c>
@@ -17536,7 +20545,7 @@
         <v>4847</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>1998</v>
       </c>
@@ -17586,7 +20595,7 @@
         <v>5037</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>1997</v>
       </c>
@@ -17636,7 +20645,7 @@
         <v>5358</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>1996</v>
       </c>
@@ -17686,7 +20695,7 @@
         <v>6082</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A326" s="5" t="s">
         <v>29</v>
       </c>
@@ -17736,7 +20745,7 @@
         <v>6858</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A327" s="5" t="s">
         <v>30</v>
       </c>
@@ -17786,7 +20795,7 @@
         <v>5902</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A328" s="5" t="s">
         <v>31</v>
       </c>
@@ -17836,7 +20845,7 @@
         <v>6514</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A329" s="5" t="s">
         <v>32</v>
       </c>
@@ -17886,7 +20895,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>1991</v>
       </c>
@@ -17936,7 +20945,7 @@
         <v>4615</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>1990</v>
       </c>
@@ -17986,7 +20995,7 @@
         <v>4607</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>1989</v>
       </c>
@@ -18036,7 +21045,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>1988</v>
       </c>
@@ -18086,7 +21095,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A334" s="5" t="s">
         <v>33</v>
       </c>
@@ -18136,27 +21145,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="9" t="s">
+    <row r="335" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B335" s="9"/>
-      <c r="C335" s="9"/>
-      <c r="D335" s="9"/>
-      <c r="E335" s="9"/>
-      <c r="F335" s="9"/>
-      <c r="G335" s="9"/>
-      <c r="H335" s="9"/>
-      <c r="I335" s="9"/>
-      <c r="J335" s="9"/>
-      <c r="K335" s="9"/>
-      <c r="L335" s="9"/>
-      <c r="M335" s="9"/>
-      <c r="N335" s="9"/>
-      <c r="O335" s="9"/>
-      <c r="P335" s="9"/>
-    </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B335" s="10"/>
+      <c r="C335" s="10"/>
+      <c r="D335" s="10"/>
+      <c r="E335" s="10"/>
+      <c r="F335" s="10"/>
+      <c r="G335" s="10"/>
+      <c r="H335" s="10"/>
+      <c r="I335" s="10"/>
+      <c r="J335" s="10"/>
+      <c r="K335" s="10"/>
+      <c r="L335" s="10"/>
+      <c r="M335" s="10"/>
+      <c r="N335" s="10"/>
+      <c r="O335" s="10"/>
+      <c r="P335" s="10"/>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>2023</v>
       </c>
@@ -18206,7 +21215,7 @@
         <v>7693</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>2022</v>
       </c>
@@ -18256,7 +21265,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>2021</v>
       </c>
@@ -18306,7 +21315,7 @@
         <v>5447</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A339" s="5" t="s">
         <v>20</v>
       </c>
@@ -18356,7 +21365,7 @@
         <v>5542</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>2019</v>
       </c>
@@ -18406,7 +21415,7 @@
         <v>4606</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>2018</v>
       </c>
@@ -18456,7 +21465,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A342" s="5" t="s">
         <v>21</v>
       </c>
@@ -18506,7 +21515,7 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>2017</v>
       </c>
@@ -18556,7 +21565,7 @@
         <v>4084</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>2016</v>
       </c>
@@ -18606,7 +21615,7 @@
         <v>5459</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>2015</v>
       </c>
@@ -18656,7 +21665,7 @@
         <v>4483</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>2014</v>
       </c>
@@ -18706,7 +21715,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A347" s="5" t="s">
         <v>22</v>
       </c>
@@ -18756,7 +21765,7 @@
         <v>12910</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A348" s="5" t="s">
         <v>23</v>
       </c>
@@ -18806,7 +21815,7 @@
         <v>4170</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>2012</v>
       </c>
@@ -18856,7 +21865,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>2011</v>
       </c>
@@ -18906,7 +21915,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A351" s="5" t="s">
         <v>24</v>
       </c>
@@ -18956,7 +21965,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A352" s="5" t="s">
         <v>25</v>
       </c>
@@ -19006,7 +22015,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>2008</v>
       </c>
@@ -19056,7 +22065,7 @@
         <v>4357</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>2007</v>
       </c>
@@ -19106,7 +22115,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>2006</v>
       </c>
@@ -19156,7 +22165,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>2005</v>
       </c>
@@ -19206,7 +22215,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A357" s="5" t="s">
         <v>26</v>
       </c>
@@ -19256,7 +22265,7 @@
         <v>5407</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>2003</v>
       </c>
@@ -19306,7 +22315,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>2002</v>
       </c>
@@ -19356,27 +22365,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="9" t="s">
+    <row r="360" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B360" s="9"/>
-      <c r="C360" s="9"/>
-      <c r="D360" s="9"/>
-      <c r="E360" s="9"/>
-      <c r="F360" s="9"/>
-      <c r="G360" s="9"/>
-      <c r="H360" s="9"/>
-      <c r="I360" s="9"/>
-      <c r="J360" s="9"/>
-      <c r="K360" s="9"/>
-      <c r="L360" s="9"/>
-      <c r="M360" s="9"/>
-      <c r="N360" s="9"/>
-      <c r="O360" s="9"/>
-      <c r="P360" s="9"/>
-    </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B360" s="10"/>
+      <c r="C360" s="10"/>
+      <c r="D360" s="10"/>
+      <c r="E360" s="10"/>
+      <c r="F360" s="10"/>
+      <c r="G360" s="10"/>
+      <c r="H360" s="10"/>
+      <c r="I360" s="10"/>
+      <c r="J360" s="10"/>
+      <c r="K360" s="10"/>
+      <c r="L360" s="10"/>
+      <c r="M360" s="10"/>
+      <c r="N360" s="10"/>
+      <c r="O360" s="10"/>
+      <c r="P360" s="10"/>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>2023</v>
       </c>
@@ -19426,7 +22435,7 @@
         <v>7497</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>2022</v>
       </c>
@@ -19476,7 +22485,7 @@
         <v>6280</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>2021</v>
       </c>
@@ -19526,7 +22535,7 @@
         <v>8653</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A364" s="5" t="s">
         <v>20</v>
       </c>
@@ -19576,7 +22585,7 @@
         <v>6813</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>2019</v>
       </c>
@@ -19626,7 +22635,7 @@
         <v>5412</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>2018</v>
       </c>
@@ -19676,7 +22685,7 @@
         <v>5492</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A367" s="5" t="s">
         <v>21</v>
       </c>
@@ -19726,7 +22735,7 @@
         <v>6431</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>2017</v>
       </c>
@@ -19776,7 +22785,7 @@
         <v>6754</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>2016</v>
       </c>
@@ -19826,7 +22835,7 @@
         <v>8545</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>2015</v>
       </c>
@@ -19876,7 +22885,7 @@
         <v>4476</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>2014</v>
       </c>
@@ -19926,7 +22935,7 @@
         <v>3996</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A372" s="5" t="s">
         <v>22</v>
       </c>
@@ -19976,7 +22985,7 @@
         <v>7461</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A373" s="5" t="s">
         <v>23</v>
       </c>
@@ -20026,7 +23035,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>2012</v>
       </c>
@@ -20076,7 +23085,7 @@
         <v>5221</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>2011</v>
       </c>
@@ -20126,7 +23135,7 @@
         <v>4661</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A376" s="5" t="s">
         <v>24</v>
       </c>
@@ -20176,7 +23185,7 @@
         <v>5160</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A377" s="5" t="s">
         <v>25</v>
       </c>
@@ -20226,7 +23235,7 @@
         <v>4857</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>2008</v>
       </c>
@@ -20276,7 +23285,7 @@
         <v>7221</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>2007</v>
       </c>
@@ -20326,7 +23335,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>2006</v>
       </c>
@@ -20376,7 +23385,7 @@
         <v>5128</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>2005</v>
       </c>
@@ -20426,7 +23435,7 @@
         <v>4652</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A382" s="5" t="s">
         <v>26</v>
       </c>
@@ -20476,7 +23485,7 @@
         <v>6302</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>2003</v>
       </c>
@@ -20526,7 +23535,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>2002</v>
       </c>
@@ -20576,27 +23585,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="9" t="s">
+    <row r="385" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B385" s="9"/>
-      <c r="C385" s="9"/>
-      <c r="D385" s="9"/>
-      <c r="E385" s="9"/>
-      <c r="F385" s="9"/>
-      <c r="G385" s="9"/>
-      <c r="H385" s="9"/>
-      <c r="I385" s="9"/>
-      <c r="J385" s="9"/>
-      <c r="K385" s="9"/>
-      <c r="L385" s="9"/>
-      <c r="M385" s="9"/>
-      <c r="N385" s="9"/>
-      <c r="O385" s="9"/>
-      <c r="P385" s="9"/>
-    </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B385" s="10"/>
+      <c r="C385" s="10"/>
+      <c r="D385" s="10"/>
+      <c r="E385" s="10"/>
+      <c r="F385" s="10"/>
+      <c r="G385" s="10"/>
+      <c r="H385" s="10"/>
+      <c r="I385" s="10"/>
+      <c r="J385" s="10"/>
+      <c r="K385" s="10"/>
+      <c r="L385" s="10"/>
+      <c r="M385" s="10"/>
+      <c r="N385" s="10"/>
+      <c r="O385" s="10"/>
+      <c r="P385" s="10"/>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>2001</v>
       </c>
@@ -20646,7 +23655,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A387" s="5" t="s">
         <v>27</v>
       </c>
@@ -20696,7 +23705,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A388" s="5" t="s">
         <v>28</v>
       </c>
@@ -20746,7 +23755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>1998</v>
       </c>
@@ -20796,7 +23805,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>1997</v>
       </c>
@@ -20846,7 +23855,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>1996</v>
       </c>
@@ -20896,7 +23905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A392" s="5" t="s">
         <v>29</v>
       </c>
@@ -20946,7 +23955,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A393" s="5" t="s">
         <v>30</v>
       </c>
@@ -20996,7 +24005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A394" s="5" t="s">
         <v>31</v>
       </c>
@@ -21046,7 +24055,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A395" s="5" t="s">
         <v>32</v>
       </c>
@@ -21096,7 +24105,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>1991</v>
       </c>
@@ -21146,7 +24155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>1990</v>
       </c>
@@ -21196,7 +24205,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>1989</v>
       </c>
@@ -21246,7 +24255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>1988</v>
       </c>
@@ -21296,7 +24305,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A400" s="5" t="s">
         <v>33</v>
       </c>
@@ -21346,27 +24355,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="9" t="s">
+    <row r="401" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B401" s="9"/>
-      <c r="C401" s="9"/>
-      <c r="D401" s="9"/>
-      <c r="E401" s="9"/>
-      <c r="F401" s="9"/>
-      <c r="G401" s="9"/>
-      <c r="H401" s="9"/>
-      <c r="I401" s="9"/>
-      <c r="J401" s="9"/>
-      <c r="K401" s="9"/>
-      <c r="L401" s="9"/>
-      <c r="M401" s="9"/>
-      <c r="N401" s="9"/>
-      <c r="O401" s="9"/>
-      <c r="P401" s="9"/>
-    </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B401" s="10"/>
+      <c r="C401" s="10"/>
+      <c r="D401" s="10"/>
+      <c r="E401" s="10"/>
+      <c r="F401" s="10"/>
+      <c r="G401" s="10"/>
+      <c r="H401" s="10"/>
+      <c r="I401" s="10"/>
+      <c r="J401" s="10"/>
+      <c r="K401" s="10"/>
+      <c r="L401" s="10"/>
+      <c r="M401" s="10"/>
+      <c r="N401" s="10"/>
+      <c r="O401" s="10"/>
+      <c r="P401" s="10"/>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>2023</v>
       </c>
@@ -21416,7 +24425,7 @@
         <v>8703</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <v>2022</v>
       </c>
@@ -21466,7 +24475,7 @@
         <v>7438</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>2021</v>
       </c>
@@ -21516,7 +24525,7 @@
         <v>5906</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A405" s="5" t="s">
         <v>20</v>
       </c>
@@ -21566,7 +24575,7 @@
         <v>8962</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <v>2019</v>
       </c>
@@ -21616,7 +24625,7 @@
         <v>6538</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>2018</v>
       </c>
@@ -21666,7 +24675,7 @@
         <v>6580</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A408" s="5" t="s">
         <v>21</v>
       </c>
@@ -21716,7 +24725,7 @@
         <v>5264</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>2017</v>
       </c>
@@ -21766,7 +24775,7 @@
         <v>5235</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>2016</v>
       </c>
@@ -21816,7 +24825,7 @@
         <v>5783</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>2015</v>
       </c>
@@ -21866,7 +24875,7 @@
         <v>7689</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>2014</v>
       </c>
@@ -21916,7 +24925,7 @@
         <v>5601</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A413" s="5" t="s">
         <v>22</v>
       </c>
@@ -21966,7 +24975,7 @@
         <v>19740</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A414" s="5" t="s">
         <v>23</v>
       </c>
@@ -22016,7 +25025,7 @@
         <v>5637</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>2012</v>
       </c>
@@ -22066,7 +25075,7 @@
         <v>5254</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>2011</v>
       </c>
@@ -22116,7 +25125,7 @@
         <v>4667</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A417" s="5" t="s">
         <v>24</v>
       </c>
@@ -22166,7 +25175,7 @@
         <v>5039</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A418" s="5" t="s">
         <v>25</v>
       </c>
@@ -22216,7 +25225,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>2008</v>
       </c>
@@ -22266,7 +25275,7 @@
         <v>5315</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <v>2007</v>
       </c>
@@ -22316,7 +25325,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>2006</v>
       </c>
@@ -22366,7 +25375,7 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>2005</v>
       </c>
@@ -22416,7 +25425,7 @@
         <v>5478</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A423" s="5" t="s">
         <v>26</v>
       </c>
@@ -22466,7 +25475,7 @@
         <v>6319</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>2003</v>
       </c>
@@ -22516,7 +25525,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <v>2002</v>
       </c>
@@ -22566,27 +25575,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="9" t="s">
+    <row r="426" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B426" s="9"/>
-      <c r="C426" s="9"/>
-      <c r="D426" s="9"/>
-      <c r="E426" s="9"/>
-      <c r="F426" s="9"/>
-      <c r="G426" s="9"/>
-      <c r="H426" s="9"/>
-      <c r="I426" s="9"/>
-      <c r="J426" s="9"/>
-      <c r="K426" s="9"/>
-      <c r="L426" s="9"/>
-      <c r="M426" s="9"/>
-      <c r="N426" s="9"/>
-      <c r="O426" s="9"/>
-      <c r="P426" s="9"/>
-    </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B426" s="10"/>
+      <c r="C426" s="10"/>
+      <c r="D426" s="10"/>
+      <c r="E426" s="10"/>
+      <c r="F426" s="10"/>
+      <c r="G426" s="10"/>
+      <c r="H426" s="10"/>
+      <c r="I426" s="10"/>
+      <c r="J426" s="10"/>
+      <c r="K426" s="10"/>
+      <c r="L426" s="10"/>
+      <c r="M426" s="10"/>
+      <c r="N426" s="10"/>
+      <c r="O426" s="10"/>
+      <c r="P426" s="10"/>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
         <v>2023</v>
       </c>
@@ -22636,7 +25645,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>2022</v>
       </c>
@@ -22686,7 +25695,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <v>2021</v>
       </c>
@@ -22736,7 +25745,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A430" s="5" t="s">
         <v>20</v>
       </c>
@@ -22786,7 +25795,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <v>2019</v>
       </c>
@@ -22836,7 +25845,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
         <v>2018</v>
       </c>
@@ -22886,7 +25895,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A433" s="5" t="s">
         <v>21</v>
       </c>
@@ -22936,7 +25945,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>2017</v>
       </c>
@@ -22986,7 +25995,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <v>2016</v>
       </c>
@@ -23036,7 +26045,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>2015</v>
       </c>
@@ -23086,7 +26095,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>2014</v>
       </c>
@@ -23136,7 +26145,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A438" s="5" t="s">
         <v>22</v>
       </c>
@@ -23186,7 +26195,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A439" s="5" t="s">
         <v>23</v>
       </c>
@@ -23236,7 +26245,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <v>2012</v>
       </c>
@@ -23286,7 +26295,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>2011</v>
       </c>
@@ -23336,7 +26345,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A442" s="5" t="s">
         <v>24</v>
       </c>
@@ -23386,7 +26395,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A443" s="5" t="s">
         <v>25</v>
       </c>
@@ -23436,7 +26445,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
         <v>2008</v>
       </c>
@@ -23486,7 +26495,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <v>2007</v>
       </c>
@@ -23536,7 +26545,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
         <v>2006</v>
       </c>
@@ -23586,7 +26595,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
         <v>2005</v>
       </c>
@@ -23636,7 +26645,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="448" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A448" s="5" t="s">
         <v>26</v>
       </c>
@@ -23686,7 +26695,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <v>2003</v>
       </c>
@@ -23736,7 +26745,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
         <v>2002</v>
       </c>
@@ -23786,7 +26795,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
         <v>2001</v>
       </c>
@@ -23836,7 +26845,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="452" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A452" s="5" t="s">
         <v>27</v>
       </c>
@@ -23886,7 +26895,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="453" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A453" s="5" t="s">
         <v>28</v>
       </c>
@@ -23936,7 +26945,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <v>1998</v>
       </c>
@@ -23986,7 +26995,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
         <v>1997</v>
       </c>
@@ -24036,7 +27045,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <v>1996</v>
       </c>
@@ -24086,7 +27095,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="457" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A457" s="5" t="s">
         <v>29</v>
       </c>
@@ -24136,7 +27145,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="458" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A458" s="5" t="s">
         <v>30</v>
       </c>
@@ -24186,7 +27195,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="459" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A459" s="5" t="s">
         <v>31</v>
       </c>
@@ -24236,7 +27245,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="460" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A460" s="5" t="s">
         <v>32</v>
       </c>
@@ -24286,7 +27295,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <v>1991</v>
       </c>
@@ -24336,7 +27345,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <v>1990</v>
       </c>
@@ -24386,7 +27395,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A463" s="2">
         <v>1989</v>
       </c>
@@ -24436,7 +27445,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <v>1988</v>
       </c>
@@ -24486,7 +27495,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="465" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A465" s="5" t="s">
         <v>33</v>
       </c>
@@ -24536,7 +27545,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <v>1986</v>
       </c>
@@ -24586,7 +27595,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A467" s="5" t="s">
         <v>34</v>
       </c>
@@ -24636,7 +27645,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="468" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A468" s="5" t="s">
         <v>35</v>
       </c>
@@ -24686,7 +27695,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <v>1983</v>
       </c>
@@ -24736,7 +27745,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A470" s="2">
         <v>1982</v>
       </c>
@@ -24786,7 +27795,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
         <v>1981</v>
       </c>
@@ -24836,7 +27845,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A472" s="2">
         <v>1980</v>
       </c>
@@ -24886,7 +27895,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="473" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A473" s="5" t="s">
         <v>36</v>
       </c>
@@ -24936,7 +27945,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A474" s="2">
         <v>1978</v>
       </c>
@@ -24986,7 +27995,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A475" s="2">
         <v>1977</v>
       </c>
@@ -25036,7 +28045,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="476" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A476" s="5" t="s">
         <v>37</v>
       </c>
@@ -25086,7 +28095,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="477" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A477" s="5" t="s">
         <v>38</v>
       </c>
@@ -25136,7 +28145,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="478" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A478" s="5" t="s">
         <v>39</v>
       </c>
@@ -25186,7 +28195,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A479" s="2">
         <v>1973</v>
       </c>
@@ -25236,7 +28245,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="480" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A480" s="5" t="s">
         <v>40</v>
       </c>
@@ -25286,565 +28295,565 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A481" s="7" t="s">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A481" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B481" s="7"/>
-      <c r="C481" s="7"/>
-      <c r="D481" s="7"/>
-      <c r="E481" s="7"/>
-      <c r="F481" s="7"/>
-      <c r="G481" s="7"/>
-      <c r="H481" s="7"/>
-      <c r="I481" s="7"/>
-      <c r="J481" s="7"/>
-      <c r="K481" s="7"/>
-      <c r="L481" s="7"/>
-      <c r="M481" s="7"/>
-      <c r="N481" s="7"/>
-      <c r="O481" s="7"/>
-      <c r="P481" s="7"/>
-    </row>
-    <row r="482" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="8" t="s">
+      <c r="B481" s="8"/>
+      <c r="C481" s="8"/>
+      <c r="D481" s="8"/>
+      <c r="E481" s="8"/>
+      <c r="F481" s="8"/>
+      <c r="G481" s="8"/>
+      <c r="H481" s="8"/>
+      <c r="I481" s="8"/>
+      <c r="J481" s="8"/>
+      <c r="K481" s="8"/>
+      <c r="L481" s="8"/>
+      <c r="M481" s="8"/>
+      <c r="N481" s="8"/>
+      <c r="O481" s="8"/>
+      <c r="P481" s="8"/>
+    </row>
+    <row r="482" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A482" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B482" s="8"/>
-      <c r="C482" s="8"/>
-      <c r="D482" s="8"/>
-      <c r="E482" s="8"/>
-      <c r="F482" s="8"/>
-      <c r="G482" s="8"/>
-      <c r="H482" s="8"/>
-      <c r="I482" s="8"/>
-      <c r="J482" s="8"/>
-      <c r="K482" s="8"/>
-      <c r="L482" s="8"/>
-      <c r="M482" s="8"/>
-      <c r="N482" s="8"/>
-      <c r="O482" s="8"/>
-      <c r="P482" s="8"/>
-    </row>
-    <row r="483" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="8" t="s">
+      <c r="B482" s="9"/>
+      <c r="C482" s="9"/>
+      <c r="D482" s="9"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="9"/>
+      <c r="G482" s="9"/>
+      <c r="H482" s="9"/>
+      <c r="I482" s="9"/>
+      <c r="J482" s="9"/>
+      <c r="K482" s="9"/>
+      <c r="L482" s="9"/>
+      <c r="M482" s="9"/>
+      <c r="N482" s="9"/>
+      <c r="O482" s="9"/>
+      <c r="P482" s="9"/>
+    </row>
+    <row r="483" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A483" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B483" s="8"/>
-      <c r="C483" s="8"/>
-      <c r="D483" s="8"/>
-      <c r="E483" s="8"/>
-      <c r="F483" s="8"/>
-      <c r="G483" s="8"/>
-      <c r="H483" s="8"/>
-      <c r="I483" s="8"/>
-      <c r="J483" s="8"/>
-      <c r="K483" s="8"/>
-      <c r="L483" s="8"/>
-      <c r="M483" s="8"/>
-      <c r="N483" s="8"/>
-      <c r="O483" s="8"/>
-      <c r="P483" s="8"/>
-    </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A484" s="7" t="s">
+      <c r="B483" s="9"/>
+      <c r="C483" s="9"/>
+      <c r="D483" s="9"/>
+      <c r="E483" s="9"/>
+      <c r="F483" s="9"/>
+      <c r="G483" s="9"/>
+      <c r="H483" s="9"/>
+      <c r="I483" s="9"/>
+      <c r="J483" s="9"/>
+      <c r="K483" s="9"/>
+      <c r="L483" s="9"/>
+      <c r="M483" s="9"/>
+      <c r="N483" s="9"/>
+      <c r="O483" s="9"/>
+      <c r="P483" s="9"/>
+    </row>
+    <row r="484" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A484" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B484" s="7"/>
-      <c r="C484" s="7"/>
-      <c r="D484" s="7"/>
-      <c r="E484" s="7"/>
-      <c r="F484" s="7"/>
-      <c r="G484" s="7"/>
-      <c r="H484" s="7"/>
-      <c r="I484" s="7"/>
-      <c r="J484" s="7"/>
-      <c r="K484" s="7"/>
-      <c r="L484" s="7"/>
-      <c r="M484" s="7"/>
-      <c r="N484" s="7"/>
-      <c r="O484" s="7"/>
-      <c r="P484" s="7"/>
-    </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A485" s="7" t="s">
+      <c r="B484" s="8"/>
+      <c r="C484" s="8"/>
+      <c r="D484" s="8"/>
+      <c r="E484" s="8"/>
+      <c r="F484" s="8"/>
+      <c r="G484" s="8"/>
+      <c r="H484" s="8"/>
+      <c r="I484" s="8"/>
+      <c r="J484" s="8"/>
+      <c r="K484" s="8"/>
+      <c r="L484" s="8"/>
+      <c r="M484" s="8"/>
+      <c r="N484" s="8"/>
+      <c r="O484" s="8"/>
+      <c r="P484" s="8"/>
+    </row>
+    <row r="485" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A485" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B485" s="7"/>
-      <c r="C485" s="7"/>
-      <c r="D485" s="7"/>
-      <c r="E485" s="7"/>
-      <c r="F485" s="7"/>
-      <c r="G485" s="7"/>
-      <c r="H485" s="7"/>
-      <c r="I485" s="7"/>
-      <c r="J485" s="7"/>
-      <c r="K485" s="7"/>
-      <c r="L485" s="7"/>
-      <c r="M485" s="7"/>
-      <c r="N485" s="7"/>
-      <c r="O485" s="7"/>
-      <c r="P485" s="7"/>
-    </row>
-    <row r="486" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="8" t="s">
+      <c r="B485" s="8"/>
+      <c r="C485" s="8"/>
+      <c r="D485" s="8"/>
+      <c r="E485" s="8"/>
+      <c r="F485" s="8"/>
+      <c r="G485" s="8"/>
+      <c r="H485" s="8"/>
+      <c r="I485" s="8"/>
+      <c r="J485" s="8"/>
+      <c r="K485" s="8"/>
+      <c r="L485" s="8"/>
+      <c r="M485" s="8"/>
+      <c r="N485" s="8"/>
+      <c r="O485" s="8"/>
+      <c r="P485" s="8"/>
+    </row>
+    <row r="486" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A486" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B486" s="8"/>
-      <c r="C486" s="8"/>
-      <c r="D486" s="8"/>
-      <c r="E486" s="8"/>
-      <c r="F486" s="8"/>
-      <c r="G486" s="8"/>
-      <c r="H486" s="8"/>
-      <c r="I486" s="8"/>
-      <c r="J486" s="8"/>
-      <c r="K486" s="8"/>
-      <c r="L486" s="8"/>
-      <c r="M486" s="8"/>
-      <c r="N486" s="8"/>
-      <c r="O486" s="8"/>
-      <c r="P486" s="8"/>
-    </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A487" s="7" t="s">
+      <c r="B486" s="9"/>
+      <c r="C486" s="9"/>
+      <c r="D486" s="9"/>
+      <c r="E486" s="9"/>
+      <c r="F486" s="9"/>
+      <c r="G486" s="9"/>
+      <c r="H486" s="9"/>
+      <c r="I486" s="9"/>
+      <c r="J486" s="9"/>
+      <c r="K486" s="9"/>
+      <c r="L486" s="9"/>
+      <c r="M486" s="9"/>
+      <c r="N486" s="9"/>
+      <c r="O486" s="9"/>
+      <c r="P486" s="9"/>
+    </row>
+    <row r="487" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A487" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B487" s="7"/>
-      <c r="C487" s="7"/>
-      <c r="D487" s="7"/>
-      <c r="E487" s="7"/>
-      <c r="F487" s="7"/>
-      <c r="G487" s="7"/>
-      <c r="H487" s="7"/>
-      <c r="I487" s="7"/>
-      <c r="J487" s="7"/>
-      <c r="K487" s="7"/>
-      <c r="L487" s="7"/>
-      <c r="M487" s="7"/>
-      <c r="N487" s="7"/>
-      <c r="O487" s="7"/>
-      <c r="P487" s="7"/>
-    </row>
-    <row r="488" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="8" t="s">
+      <c r="B487" s="8"/>
+      <c r="C487" s="8"/>
+      <c r="D487" s="8"/>
+      <c r="E487" s="8"/>
+      <c r="F487" s="8"/>
+      <c r="G487" s="8"/>
+      <c r="H487" s="8"/>
+      <c r="I487" s="8"/>
+      <c r="J487" s="8"/>
+      <c r="K487" s="8"/>
+      <c r="L487" s="8"/>
+      <c r="M487" s="8"/>
+      <c r="N487" s="8"/>
+      <c r="O487" s="8"/>
+      <c r="P487" s="8"/>
+    </row>
+    <row r="488" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A488" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B488" s="8"/>
-      <c r="C488" s="8"/>
-      <c r="D488" s="8"/>
-      <c r="E488" s="8"/>
-      <c r="F488" s="8"/>
-      <c r="G488" s="8"/>
-      <c r="H488" s="8"/>
-      <c r="I488" s="8"/>
-      <c r="J488" s="8"/>
-      <c r="K488" s="8"/>
-      <c r="L488" s="8"/>
-      <c r="M488" s="8"/>
-      <c r="N488" s="8"/>
-      <c r="O488" s="8"/>
-      <c r="P488" s="8"/>
-    </row>
-    <row r="489" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="8" t="s">
+      <c r="B488" s="9"/>
+      <c r="C488" s="9"/>
+      <c r="D488" s="9"/>
+      <c r="E488" s="9"/>
+      <c r="F488" s="9"/>
+      <c r="G488" s="9"/>
+      <c r="H488" s="9"/>
+      <c r="I488" s="9"/>
+      <c r="J488" s="9"/>
+      <c r="K488" s="9"/>
+      <c r="L488" s="9"/>
+      <c r="M488" s="9"/>
+      <c r="N488" s="9"/>
+      <c r="O488" s="9"/>
+      <c r="P488" s="9"/>
+    </row>
+    <row r="489" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A489" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B489" s="8"/>
-      <c r="C489" s="8"/>
-      <c r="D489" s="8"/>
-      <c r="E489" s="8"/>
-      <c r="F489" s="8"/>
-      <c r="G489" s="8"/>
-      <c r="H489" s="8"/>
-      <c r="I489" s="8"/>
-      <c r="J489" s="8"/>
-      <c r="K489" s="8"/>
-      <c r="L489" s="8"/>
-      <c r="M489" s="8"/>
-      <c r="N489" s="8"/>
-      <c r="O489" s="8"/>
-      <c r="P489" s="8"/>
-    </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A490" s="7" t="s">
+      <c r="B489" s="9"/>
+      <c r="C489" s="9"/>
+      <c r="D489" s="9"/>
+      <c r="E489" s="9"/>
+      <c r="F489" s="9"/>
+      <c r="G489" s="9"/>
+      <c r="H489" s="9"/>
+      <c r="I489" s="9"/>
+      <c r="J489" s="9"/>
+      <c r="K489" s="9"/>
+      <c r="L489" s="9"/>
+      <c r="M489" s="9"/>
+      <c r="N489" s="9"/>
+      <c r="O489" s="9"/>
+      <c r="P489" s="9"/>
+    </row>
+    <row r="490" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A490" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B490" s="7"/>
-      <c r="C490" s="7"/>
-      <c r="D490" s="7"/>
-      <c r="E490" s="7"/>
-      <c r="F490" s="7"/>
-      <c r="G490" s="7"/>
-      <c r="H490" s="7"/>
-      <c r="I490" s="7"/>
-      <c r="J490" s="7"/>
-      <c r="K490" s="7"/>
-      <c r="L490" s="7"/>
-      <c r="M490" s="7"/>
-      <c r="N490" s="7"/>
-      <c r="O490" s="7"/>
-      <c r="P490" s="7"/>
-    </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A491" s="7" t="s">
+      <c r="B490" s="8"/>
+      <c r="C490" s="8"/>
+      <c r="D490" s="8"/>
+      <c r="E490" s="8"/>
+      <c r="F490" s="8"/>
+      <c r="G490" s="8"/>
+      <c r="H490" s="8"/>
+      <c r="I490" s="8"/>
+      <c r="J490" s="8"/>
+      <c r="K490" s="8"/>
+      <c r="L490" s="8"/>
+      <c r="M490" s="8"/>
+      <c r="N490" s="8"/>
+      <c r="O490" s="8"/>
+      <c r="P490" s="8"/>
+    </row>
+    <row r="491" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A491" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B491" s="7"/>
-      <c r="C491" s="7"/>
-      <c r="D491" s="7"/>
-      <c r="E491" s="7"/>
-      <c r="F491" s="7"/>
-      <c r="G491" s="7"/>
-      <c r="H491" s="7"/>
-      <c r="I491" s="7"/>
-      <c r="J491" s="7"/>
-      <c r="K491" s="7"/>
-      <c r="L491" s="7"/>
-      <c r="M491" s="7"/>
-      <c r="N491" s="7"/>
-      <c r="O491" s="7"/>
-      <c r="P491" s="7"/>
-    </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A492" s="7" t="s">
+      <c r="B491" s="8"/>
+      <c r="C491" s="8"/>
+      <c r="D491" s="8"/>
+      <c r="E491" s="8"/>
+      <c r="F491" s="8"/>
+      <c r="G491" s="8"/>
+      <c r="H491" s="8"/>
+      <c r="I491" s="8"/>
+      <c r="J491" s="8"/>
+      <c r="K491" s="8"/>
+      <c r="L491" s="8"/>
+      <c r="M491" s="8"/>
+      <c r="N491" s="8"/>
+      <c r="O491" s="8"/>
+      <c r="P491" s="8"/>
+    </row>
+    <row r="492" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A492" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B492" s="7"/>
-      <c r="C492" s="7"/>
-      <c r="D492" s="7"/>
-      <c r="E492" s="7"/>
-      <c r="F492" s="7"/>
-      <c r="G492" s="7"/>
-      <c r="H492" s="7"/>
-      <c r="I492" s="7"/>
-      <c r="J492" s="7"/>
-      <c r="K492" s="7"/>
-      <c r="L492" s="7"/>
-      <c r="M492" s="7"/>
-      <c r="N492" s="7"/>
-      <c r="O492" s="7"/>
-      <c r="P492" s="7"/>
-    </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A493" s="7" t="s">
+      <c r="B492" s="8"/>
+      <c r="C492" s="8"/>
+      <c r="D492" s="8"/>
+      <c r="E492" s="8"/>
+      <c r="F492" s="8"/>
+      <c r="G492" s="8"/>
+      <c r="H492" s="8"/>
+      <c r="I492" s="8"/>
+      <c r="J492" s="8"/>
+      <c r="K492" s="8"/>
+      <c r="L492" s="8"/>
+      <c r="M492" s="8"/>
+      <c r="N492" s="8"/>
+      <c r="O492" s="8"/>
+      <c r="P492" s="8"/>
+    </row>
+    <row r="493" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A493" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B493" s="7"/>
-      <c r="C493" s="7"/>
-      <c r="D493" s="7"/>
-      <c r="E493" s="7"/>
-      <c r="F493" s="7"/>
-      <c r="G493" s="7"/>
-      <c r="H493" s="7"/>
-      <c r="I493" s="7"/>
-      <c r="J493" s="7"/>
-      <c r="K493" s="7"/>
-      <c r="L493" s="7"/>
-      <c r="M493" s="7"/>
-      <c r="N493" s="7"/>
-      <c r="O493" s="7"/>
-      <c r="P493" s="7"/>
-    </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A494" s="7" t="s">
+      <c r="B493" s="8"/>
+      <c r="C493" s="8"/>
+      <c r="D493" s="8"/>
+      <c r="E493" s="8"/>
+      <c r="F493" s="8"/>
+      <c r="G493" s="8"/>
+      <c r="H493" s="8"/>
+      <c r="I493" s="8"/>
+      <c r="J493" s="8"/>
+      <c r="K493" s="8"/>
+      <c r="L493" s="8"/>
+      <c r="M493" s="8"/>
+      <c r="N493" s="8"/>
+      <c r="O493" s="8"/>
+      <c r="P493" s="8"/>
+    </row>
+    <row r="494" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A494" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B494" s="7"/>
-      <c r="C494" s="7"/>
-      <c r="D494" s="7"/>
-      <c r="E494" s="7"/>
-      <c r="F494" s="7"/>
-      <c r="G494" s="7"/>
-      <c r="H494" s="7"/>
-      <c r="I494" s="7"/>
-      <c r="J494" s="7"/>
-      <c r="K494" s="7"/>
-      <c r="L494" s="7"/>
-      <c r="M494" s="7"/>
-      <c r="N494" s="7"/>
-      <c r="O494" s="7"/>
-      <c r="P494" s="7"/>
-    </row>
-    <row r="495" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="8" t="s">
+      <c r="B494" s="8"/>
+      <c r="C494" s="8"/>
+      <c r="D494" s="8"/>
+      <c r="E494" s="8"/>
+      <c r="F494" s="8"/>
+      <c r="G494" s="8"/>
+      <c r="H494" s="8"/>
+      <c r="I494" s="8"/>
+      <c r="J494" s="8"/>
+      <c r="K494" s="8"/>
+      <c r="L494" s="8"/>
+      <c r="M494" s="8"/>
+      <c r="N494" s="8"/>
+      <c r="O494" s="8"/>
+      <c r="P494" s="8"/>
+    </row>
+    <row r="495" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A495" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B495" s="8"/>
-      <c r="C495" s="8"/>
-      <c r="D495" s="8"/>
-      <c r="E495" s="8"/>
-      <c r="F495" s="8"/>
-      <c r="G495" s="8"/>
-      <c r="H495" s="8"/>
-      <c r="I495" s="8"/>
-      <c r="J495" s="8"/>
-      <c r="K495" s="8"/>
-      <c r="L495" s="8"/>
-      <c r="M495" s="8"/>
-      <c r="N495" s="8"/>
-      <c r="O495" s="8"/>
-      <c r="P495" s="8"/>
-    </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A496" s="7" t="s">
+      <c r="B495" s="9"/>
+      <c r="C495" s="9"/>
+      <c r="D495" s="9"/>
+      <c r="E495" s="9"/>
+      <c r="F495" s="9"/>
+      <c r="G495" s="9"/>
+      <c r="H495" s="9"/>
+      <c r="I495" s="9"/>
+      <c r="J495" s="9"/>
+      <c r="K495" s="9"/>
+      <c r="L495" s="9"/>
+      <c r="M495" s="9"/>
+      <c r="N495" s="9"/>
+      <c r="O495" s="9"/>
+      <c r="P495" s="9"/>
+    </row>
+    <row r="496" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A496" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B496" s="7"/>
-      <c r="C496" s="7"/>
-      <c r="D496" s="7"/>
-      <c r="E496" s="7"/>
-      <c r="F496" s="7"/>
-      <c r="G496" s="7"/>
-      <c r="H496" s="7"/>
-      <c r="I496" s="7"/>
-      <c r="J496" s="7"/>
-      <c r="K496" s="7"/>
-      <c r="L496" s="7"/>
-      <c r="M496" s="7"/>
-      <c r="N496" s="7"/>
-      <c r="O496" s="7"/>
-      <c r="P496" s="7"/>
-    </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A497" s="7" t="s">
+      <c r="B496" s="8"/>
+      <c r="C496" s="8"/>
+      <c r="D496" s="8"/>
+      <c r="E496" s="8"/>
+      <c r="F496" s="8"/>
+      <c r="G496" s="8"/>
+      <c r="H496" s="8"/>
+      <c r="I496" s="8"/>
+      <c r="J496" s="8"/>
+      <c r="K496" s="8"/>
+      <c r="L496" s="8"/>
+      <c r="M496" s="8"/>
+      <c r="N496" s="8"/>
+      <c r="O496" s="8"/>
+      <c r="P496" s="8"/>
+    </row>
+    <row r="497" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A497" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B497" s="7"/>
-      <c r="C497" s="7"/>
-      <c r="D497" s="7"/>
-      <c r="E497" s="7"/>
-      <c r="F497" s="7"/>
-      <c r="G497" s="7"/>
-      <c r="H497" s="7"/>
-      <c r="I497" s="7"/>
-      <c r="J497" s="7"/>
-      <c r="K497" s="7"/>
-      <c r="L497" s="7"/>
-      <c r="M497" s="7"/>
-      <c r="N497" s="7"/>
-      <c r="O497" s="7"/>
-      <c r="P497" s="7"/>
-    </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A498" s="7" t="s">
+      <c r="B497" s="8"/>
+      <c r="C497" s="8"/>
+      <c r="D497" s="8"/>
+      <c r="E497" s="8"/>
+      <c r="F497" s="8"/>
+      <c r="G497" s="8"/>
+      <c r="H497" s="8"/>
+      <c r="I497" s="8"/>
+      <c r="J497" s="8"/>
+      <c r="K497" s="8"/>
+      <c r="L497" s="8"/>
+      <c r="M497" s="8"/>
+      <c r="N497" s="8"/>
+      <c r="O497" s="8"/>
+      <c r="P497" s="8"/>
+    </row>
+    <row r="498" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A498" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B498" s="7"/>
-      <c r="C498" s="7"/>
-      <c r="D498" s="7"/>
-      <c r="E498" s="7"/>
-      <c r="F498" s="7"/>
-      <c r="G498" s="7"/>
-      <c r="H498" s="7"/>
-      <c r="I498" s="7"/>
-      <c r="J498" s="7"/>
-      <c r="K498" s="7"/>
-      <c r="L498" s="7"/>
-      <c r="M498" s="7"/>
-      <c r="N498" s="7"/>
-      <c r="O498" s="7"/>
-      <c r="P498" s="7"/>
-    </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A499" s="7" t="s">
+      <c r="B498" s="8"/>
+      <c r="C498" s="8"/>
+      <c r="D498" s="8"/>
+      <c r="E498" s="8"/>
+      <c r="F498" s="8"/>
+      <c r="G498" s="8"/>
+      <c r="H498" s="8"/>
+      <c r="I498" s="8"/>
+      <c r="J498" s="8"/>
+      <c r="K498" s="8"/>
+      <c r="L498" s="8"/>
+      <c r="M498" s="8"/>
+      <c r="N498" s="8"/>
+      <c r="O498" s="8"/>
+      <c r="P498" s="8"/>
+    </row>
+    <row r="499" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A499" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B499" s="7"/>
-      <c r="C499" s="7"/>
-      <c r="D499" s="7"/>
-      <c r="E499" s="7"/>
-      <c r="F499" s="7"/>
-      <c r="G499" s="7"/>
-      <c r="H499" s="7"/>
-      <c r="I499" s="7"/>
-      <c r="J499" s="7"/>
-      <c r="K499" s="7"/>
-      <c r="L499" s="7"/>
-      <c r="M499" s="7"/>
-      <c r="N499" s="7"/>
-      <c r="O499" s="7"/>
-      <c r="P499" s="7"/>
-    </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A500" s="7" t="s">
+      <c r="B499" s="8"/>
+      <c r="C499" s="8"/>
+      <c r="D499" s="8"/>
+      <c r="E499" s="8"/>
+      <c r="F499" s="8"/>
+      <c r="G499" s="8"/>
+      <c r="H499" s="8"/>
+      <c r="I499" s="8"/>
+      <c r="J499" s="8"/>
+      <c r="K499" s="8"/>
+      <c r="L499" s="8"/>
+      <c r="M499" s="8"/>
+      <c r="N499" s="8"/>
+      <c r="O499" s="8"/>
+      <c r="P499" s="8"/>
+    </row>
+    <row r="500" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A500" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B500" s="7"/>
-      <c r="C500" s="7"/>
-      <c r="D500" s="7"/>
-      <c r="E500" s="7"/>
-      <c r="F500" s="7"/>
-      <c r="G500" s="7"/>
-      <c r="H500" s="7"/>
-      <c r="I500" s="7"/>
-      <c r="J500" s="7"/>
-      <c r="K500" s="7"/>
-      <c r="L500" s="7"/>
-      <c r="M500" s="7"/>
-      <c r="N500" s="7"/>
-      <c r="O500" s="7"/>
-      <c r="P500" s="7"/>
-    </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A501" s="7" t="s">
+      <c r="B500" s="8"/>
+      <c r="C500" s="8"/>
+      <c r="D500" s="8"/>
+      <c r="E500" s="8"/>
+      <c r="F500" s="8"/>
+      <c r="G500" s="8"/>
+      <c r="H500" s="8"/>
+      <c r="I500" s="8"/>
+      <c r="J500" s="8"/>
+      <c r="K500" s="8"/>
+      <c r="L500" s="8"/>
+      <c r="M500" s="8"/>
+      <c r="N500" s="8"/>
+      <c r="O500" s="8"/>
+      <c r="P500" s="8"/>
+    </row>
+    <row r="501" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A501" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B501" s="7"/>
-      <c r="C501" s="7"/>
-      <c r="D501" s="7"/>
-      <c r="E501" s="7"/>
-      <c r="F501" s="7"/>
-      <c r="G501" s="7"/>
-      <c r="H501" s="7"/>
-      <c r="I501" s="7"/>
-      <c r="J501" s="7"/>
-      <c r="K501" s="7"/>
-      <c r="L501" s="7"/>
-      <c r="M501" s="7"/>
-      <c r="N501" s="7"/>
-      <c r="O501" s="7"/>
-      <c r="P501" s="7"/>
-    </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A502" s="7" t="s">
+      <c r="B501" s="8"/>
+      <c r="C501" s="8"/>
+      <c r="D501" s="8"/>
+      <c r="E501" s="8"/>
+      <c r="F501" s="8"/>
+      <c r="G501" s="8"/>
+      <c r="H501" s="8"/>
+      <c r="I501" s="8"/>
+      <c r="J501" s="8"/>
+      <c r="K501" s="8"/>
+      <c r="L501" s="8"/>
+      <c r="M501" s="8"/>
+      <c r="N501" s="8"/>
+      <c r="O501" s="8"/>
+      <c r="P501" s="8"/>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A502" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B502" s="7"/>
-      <c r="C502" s="7"/>
-      <c r="D502" s="7"/>
-      <c r="E502" s="7"/>
-      <c r="F502" s="7"/>
-      <c r="G502" s="7"/>
-      <c r="H502" s="7"/>
-      <c r="I502" s="7"/>
-      <c r="J502" s="7"/>
-      <c r="K502" s="7"/>
-      <c r="L502" s="7"/>
-      <c r="M502" s="7"/>
-      <c r="N502" s="7"/>
-      <c r="O502" s="7"/>
-      <c r="P502" s="7"/>
-    </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A503" s="7" t="s">
+      <c r="B502" s="8"/>
+      <c r="C502" s="8"/>
+      <c r="D502" s="8"/>
+      <c r="E502" s="8"/>
+      <c r="F502" s="8"/>
+      <c r="G502" s="8"/>
+      <c r="H502" s="8"/>
+      <c r="I502" s="8"/>
+      <c r="J502" s="8"/>
+      <c r="K502" s="8"/>
+      <c r="L502" s="8"/>
+      <c r="M502" s="8"/>
+      <c r="N502" s="8"/>
+      <c r="O502" s="8"/>
+      <c r="P502" s="8"/>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A503" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B503" s="7"/>
-      <c r="C503" s="7"/>
-      <c r="D503" s="7"/>
-      <c r="E503" s="7"/>
-      <c r="F503" s="7"/>
-      <c r="G503" s="7"/>
-      <c r="H503" s="7"/>
-      <c r="I503" s="7"/>
-      <c r="J503" s="7"/>
-      <c r="K503" s="7"/>
-      <c r="L503" s="7"/>
-      <c r="M503" s="7"/>
-      <c r="N503" s="7"/>
-      <c r="O503" s="7"/>
-      <c r="P503" s="7"/>
-    </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A504" s="7" t="s">
+      <c r="B503" s="8"/>
+      <c r="C503" s="8"/>
+      <c r="D503" s="8"/>
+      <c r="E503" s="8"/>
+      <c r="F503" s="8"/>
+      <c r="G503" s="8"/>
+      <c r="H503" s="8"/>
+      <c r="I503" s="8"/>
+      <c r="J503" s="8"/>
+      <c r="K503" s="8"/>
+      <c r="L503" s="8"/>
+      <c r="M503" s="8"/>
+      <c r="N503" s="8"/>
+      <c r="O503" s="8"/>
+      <c r="P503" s="8"/>
+    </row>
+    <row r="504" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A504" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B504" s="7"/>
-      <c r="C504" s="7"/>
-      <c r="D504" s="7"/>
-      <c r="E504" s="7"/>
-      <c r="F504" s="7"/>
-      <c r="G504" s="7"/>
-      <c r="H504" s="7"/>
-      <c r="I504" s="7"/>
-      <c r="J504" s="7"/>
-      <c r="K504" s="7"/>
-      <c r="L504" s="7"/>
-      <c r="M504" s="7"/>
-      <c r="N504" s="7"/>
-      <c r="O504" s="7"/>
-      <c r="P504" s="7"/>
-    </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A505" s="7" t="s">
+      <c r="B504" s="8"/>
+      <c r="C504" s="8"/>
+      <c r="D504" s="8"/>
+      <c r="E504" s="8"/>
+      <c r="F504" s="8"/>
+      <c r="G504" s="8"/>
+      <c r="H504" s="8"/>
+      <c r="I504" s="8"/>
+      <c r="J504" s="8"/>
+      <c r="K504" s="8"/>
+      <c r="L504" s="8"/>
+      <c r="M504" s="8"/>
+      <c r="N504" s="8"/>
+      <c r="O504" s="8"/>
+      <c r="P504" s="8"/>
+    </row>
+    <row r="505" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A505" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B505" s="7"/>
-      <c r="C505" s="7"/>
-      <c r="D505" s="7"/>
-      <c r="E505" s="7"/>
-      <c r="F505" s="7"/>
-      <c r="G505" s="7"/>
-      <c r="H505" s="7"/>
-      <c r="I505" s="7"/>
-      <c r="J505" s="7"/>
-      <c r="K505" s="7"/>
-      <c r="L505" s="7"/>
-      <c r="M505" s="7"/>
-      <c r="N505" s="7"/>
-      <c r="O505" s="7"/>
-      <c r="P505" s="7"/>
-    </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A506" s="7" t="s">
+      <c r="B505" s="8"/>
+      <c r="C505" s="8"/>
+      <c r="D505" s="8"/>
+      <c r="E505" s="8"/>
+      <c r="F505" s="8"/>
+      <c r="G505" s="8"/>
+      <c r="H505" s="8"/>
+      <c r="I505" s="8"/>
+      <c r="J505" s="8"/>
+      <c r="K505" s="8"/>
+      <c r="L505" s="8"/>
+      <c r="M505" s="8"/>
+      <c r="N505" s="8"/>
+      <c r="O505" s="8"/>
+      <c r="P505" s="8"/>
+    </row>
+    <row r="506" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A506" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B506" s="7"/>
-      <c r="C506" s="7"/>
-      <c r="D506" s="7"/>
-      <c r="E506" s="7"/>
-      <c r="F506" s="7"/>
-      <c r="G506" s="7"/>
-      <c r="H506" s="7"/>
-      <c r="I506" s="7"/>
-      <c r="J506" s="7"/>
-      <c r="K506" s="7"/>
-      <c r="L506" s="7"/>
-      <c r="M506" s="7"/>
-      <c r="N506" s="7"/>
-      <c r="O506" s="7"/>
-      <c r="P506" s="7"/>
-    </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A507" s="7" t="s">
+      <c r="B506" s="8"/>
+      <c r="C506" s="8"/>
+      <c r="D506" s="8"/>
+      <c r="E506" s="8"/>
+      <c r="F506" s="8"/>
+      <c r="G506" s="8"/>
+      <c r="H506" s="8"/>
+      <c r="I506" s="8"/>
+      <c r="J506" s="8"/>
+      <c r="K506" s="8"/>
+      <c r="L506" s="8"/>
+      <c r="M506" s="8"/>
+      <c r="N506" s="8"/>
+      <c r="O506" s="8"/>
+      <c r="P506" s="8"/>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A507" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B507" s="7"/>
-      <c r="C507" s="7"/>
-      <c r="D507" s="7"/>
-      <c r="E507" s="7"/>
-      <c r="F507" s="7"/>
-      <c r="G507" s="7"/>
-      <c r="H507" s="7"/>
-      <c r="I507" s="7"/>
-      <c r="J507" s="7"/>
-      <c r="K507" s="7"/>
-      <c r="L507" s="7"/>
-      <c r="M507" s="7"/>
-      <c r="N507" s="7"/>
-      <c r="O507" s="7"/>
-      <c r="P507" s="7"/>
-    </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A508" s="7" t="s">
+      <c r="B507" s="8"/>
+      <c r="C507" s="8"/>
+      <c r="D507" s="8"/>
+      <c r="E507" s="8"/>
+      <c r="F507" s="8"/>
+      <c r="G507" s="8"/>
+      <c r="H507" s="8"/>
+      <c r="I507" s="8"/>
+      <c r="J507" s="8"/>
+      <c r="K507" s="8"/>
+      <c r="L507" s="8"/>
+      <c r="M507" s="8"/>
+      <c r="N507" s="8"/>
+      <c r="O507" s="8"/>
+      <c r="P507" s="8"/>
+    </row>
+    <row r="508" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A508" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B508" s="7"/>
-      <c r="C508" s="7"/>
-      <c r="D508" s="7"/>
-      <c r="E508" s="7"/>
-      <c r="F508" s="7"/>
-      <c r="G508" s="7"/>
-      <c r="H508" s="7"/>
-      <c r="I508" s="7"/>
-      <c r="J508" s="7"/>
-      <c r="K508" s="7"/>
-      <c r="L508" s="7"/>
-      <c r="M508" s="7"/>
-      <c r="N508" s="7"/>
-      <c r="O508" s="7"/>
-      <c r="P508" s="7"/>
+      <c r="B508" s="8"/>
+      <c r="C508" s="8"/>
+      <c r="D508" s="8"/>
+      <c r="E508" s="8"/>
+      <c r="F508" s="8"/>
+      <c r="G508" s="8"/>
+      <c r="H508" s="8"/>
+      <c r="I508" s="8"/>
+      <c r="J508" s="8"/>
+      <c r="K508" s="8"/>
+      <c r="L508" s="8"/>
+      <c r="M508" s="8"/>
+      <c r="N508" s="8"/>
+      <c r="O508" s="8"/>
+      <c r="P508" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -25856,6 +28865,7 @@
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A335:P335"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A66:P66"/>
     <mergeCell ref="A91:P91"/>
@@ -25867,7 +28877,7 @@
     <mergeCell ref="A269:P269"/>
     <mergeCell ref="A294:P294"/>
     <mergeCell ref="A319:P319"/>
-    <mergeCell ref="A335:P335"/>
+    <mergeCell ref="A488:P488"/>
     <mergeCell ref="A360:P360"/>
     <mergeCell ref="A385:P385"/>
     <mergeCell ref="A401:P401"/>
@@ -25879,7 +28889,7 @@
     <mergeCell ref="A485:P485"/>
     <mergeCell ref="A486:P486"/>
     <mergeCell ref="A487:P487"/>
-    <mergeCell ref="A488:P488"/>
+    <mergeCell ref="A500:P500"/>
     <mergeCell ref="A489:P489"/>
     <mergeCell ref="A490:P490"/>
     <mergeCell ref="A491:P491"/>
@@ -25891,18 +28901,17 @@
     <mergeCell ref="A497:P497"/>
     <mergeCell ref="A498:P498"/>
     <mergeCell ref="A499:P499"/>
-    <mergeCell ref="A505:P505"/>
-    <mergeCell ref="A506:P506"/>
     <mergeCell ref="A507:P507"/>
     <mergeCell ref="A508:P508"/>
-    <mergeCell ref="A500:P500"/>
     <mergeCell ref="A501:P501"/>
     <mergeCell ref="A502:P502"/>
     <mergeCell ref="A503:P503"/>
     <mergeCell ref="A504:P504"/>
+    <mergeCell ref="A505:P505"/>
+    <mergeCell ref="A506:P506"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{30E83461-0B17-479F-A81F-F55E07968F89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
